--- a/TCC EXCEL FILES/TCC 2010.xlsx
+++ b/TCC EXCEL FILES/TCC 2010.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamza\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NodeJS WebApps\JSONFILEUPLOAD\TCC EXCEL FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0155DD4-CFAB-47D3-9967-306ED6F39F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9999F147-523E-43DA-B057-E801D067BB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5929" uniqueCount="1601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5930" uniqueCount="1602">
   <si>
     <t>Judges Names</t>
   </si>
@@ -4823,6 +4823,9 @@
   </si>
   <si>
     <t>PM</t>
+  </si>
+  <si>
+    <t>Issue</t>
   </si>
 </sst>
 </file>
@@ -5199,15 +5202,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M494"/>
+  <dimension ref="A1:N494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5245,10 +5248,13 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5285,11 +5291,14 @@
       <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -5326,11 +5335,14 @@
       <c r="L3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -5367,11 +5379,14 @@
       <c r="L4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -5408,11 +5423,14 @@
       <c r="L5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -5449,11 +5467,14 @@
       <c r="L6" t="s">
         <v>53</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -5490,11 +5511,14 @@
       <c r="L7" t="s">
         <v>53</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -5531,11 +5555,14 @@
       <c r="L8" t="s">
         <v>22</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -5572,11 +5599,14 @@
       <c r="L9" t="s">
         <v>22</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -5613,11 +5643,14 @@
       <c r="L10" t="s">
         <v>53</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -5654,11 +5687,14 @@
       <c r="L11" t="s">
         <v>53</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -5695,11 +5731,14 @@
       <c r="L12" t="s">
         <v>22</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -5736,11 +5775,14 @@
       <c r="L13" t="s">
         <v>53</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -5777,11 +5819,14 @@
       <c r="L14" t="s">
         <v>53</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -5818,11 +5863,14 @@
       <c r="L15" t="s">
         <v>22</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -5859,11 +5907,14 @@
       <c r="L16" t="s">
         <v>22</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -5900,11 +5951,14 @@
       <c r="L17" t="s">
         <v>53</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -5941,11 +5995,14 @@
       <c r="L18" t="s">
         <v>53</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -5982,11 +6039,14 @@
       <c r="L19" t="s">
         <v>53</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -6023,11 +6083,14 @@
       <c r="L20" t="s">
         <v>22</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>127</v>
       </c>
@@ -6064,11 +6127,14 @@
       <c r="L21" t="s">
         <v>22</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -6105,11 +6171,14 @@
       <c r="L22" t="s">
         <v>53</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -6146,11 +6215,14 @@
       <c r="L23" t="s">
         <v>22</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>142</v>
       </c>
@@ -6187,11 +6259,14 @@
       <c r="L24" t="s">
         <v>22</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>116</v>
       </c>
@@ -6228,11 +6303,14 @@
       <c r="L25" t="s">
         <v>53</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -6269,11 +6347,14 @@
       <c r="L26" t="s">
         <v>53</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -6310,11 +6391,14 @@
       <c r="L27" t="s">
         <v>22</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -6351,11 +6435,14 @@
       <c r="L28" t="s">
         <v>53</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -6392,11 +6479,14 @@
       <c r="L29" t="s">
         <v>22</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -6433,11 +6523,14 @@
       <c r="L30" t="s">
         <v>22</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -6474,11 +6567,14 @@
       <c r="L31" t="s">
         <v>22</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -6515,11 +6611,14 @@
       <c r="L32" t="s">
         <v>22</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>173</v>
       </c>
@@ -6556,11 +6655,14 @@
       <c r="L33" t="s">
         <v>22</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>178</v>
       </c>
@@ -6597,11 +6699,14 @@
       <c r="L34" t="s">
         <v>22</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -6638,11 +6743,14 @@
       <c r="L35" t="s">
         <v>22</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>142</v>
       </c>
@@ -6679,11 +6787,14 @@
       <c r="L36" t="s">
         <v>22</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -6720,11 +6831,14 @@
       <c r="L37" t="s">
         <v>53</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>194</v>
       </c>
@@ -6761,11 +6875,14 @@
       <c r="L38" t="s">
         <v>22</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -6802,11 +6919,14 @@
       <c r="L39" t="s">
         <v>22</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -6843,11 +6963,14 @@
       <c r="L40" t="s">
         <v>22</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -6884,11 +7007,14 @@
       <c r="L41" t="s">
         <v>22</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -6925,11 +7051,14 @@
       <c r="L42" t="s">
         <v>22</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>213</v>
       </c>
@@ -6966,11 +7095,14 @@
       <c r="L43" t="s">
         <v>22</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -7007,11 +7139,14 @@
       <c r="L44" t="s">
         <v>22</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>71</v>
       </c>
@@ -7048,11 +7183,14 @@
       <c r="L45" t="s">
         <v>53</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -7089,11 +7227,14 @@
       <c r="L46" t="s">
         <v>53</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>116</v>
       </c>
@@ -7130,11 +7271,14 @@
       <c r="L47" t="s">
         <v>53</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -7171,11 +7315,14 @@
       <c r="L48" t="s">
         <v>22</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>238</v>
       </c>
@@ -7212,11 +7359,14 @@
       <c r="L49" t="s">
         <v>22</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -7253,11 +7403,14 @@
       <c r="L50" t="s">
         <v>22</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -7294,11 +7447,14 @@
       <c r="L51" t="s">
         <v>22</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>223</v>
       </c>
@@ -7335,11 +7491,14 @@
       <c r="L52" t="s">
         <v>53</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -7376,11 +7535,14 @@
       <c r="L53" t="s">
         <v>53</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -7417,11 +7579,14 @@
       <c r="L54" t="s">
         <v>53</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -7458,11 +7623,14 @@
       <c r="L55" t="s">
         <v>53</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -7499,11 +7667,14 @@
       <c r="L56" t="s">
         <v>22</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>266</v>
       </c>
@@ -7540,11 +7711,14 @@
       <c r="L57" t="s">
         <v>53</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -7581,11 +7755,14 @@
       <c r="L58" t="s">
         <v>22</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -7622,11 +7799,14 @@
       <c r="L59" t="s">
         <v>22</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>277</v>
       </c>
@@ -7663,11 +7843,14 @@
       <c r="L60" t="s">
         <v>22</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>283</v>
       </c>
@@ -7704,11 +7887,14 @@
       <c r="L61" t="s">
         <v>22</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>287</v>
       </c>
@@ -7745,11 +7931,14 @@
       <c r="L62" t="s">
         <v>22</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>292</v>
       </c>
@@ -7786,11 +7975,14 @@
       <c r="L63" t="s">
         <v>22</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -7827,11 +8019,14 @@
       <c r="L64" t="s">
         <v>53</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>283</v>
       </c>
@@ -7868,11 +8063,14 @@
       <c r="L65" t="s">
         <v>22</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>277</v>
       </c>
@@ -7909,11 +8107,14 @@
       <c r="L66" t="s">
         <v>22</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>309</v>
       </c>
@@ -7950,11 +8151,14 @@
       <c r="L67" t="s">
         <v>22</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -7991,11 +8195,14 @@
       <c r="L68" t="s">
         <v>53</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>194</v>
       </c>
@@ -8032,11 +8239,14 @@
       <c r="L69" t="s">
         <v>22</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>266</v>
       </c>
@@ -8073,11 +8283,14 @@
       <c r="L70" t="s">
         <v>53</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>266</v>
       </c>
@@ -8114,11 +8327,14 @@
       <c r="L71" t="s">
         <v>53</v>
       </c>
-      <c r="M71" t="s">
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>329</v>
       </c>
@@ -8155,11 +8371,14 @@
       <c r="L72" t="s">
         <v>22</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -8196,11 +8415,14 @@
       <c r="L73" t="s">
         <v>53</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -8237,11 +8459,14 @@
       <c r="L74" t="s">
         <v>22</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -8278,11 +8503,14 @@
       <c r="L75" t="s">
         <v>22</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>343</v>
       </c>
@@ -8319,11 +8547,14 @@
       <c r="L76" t="s">
         <v>22</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>49</v>
       </c>
@@ -8360,11 +8591,14 @@
       <c r="L77" t="s">
         <v>53</v>
       </c>
-      <c r="M77" t="s">
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>343</v>
       </c>
@@ -8401,11 +8635,14 @@
       <c r="L78" t="s">
         <v>22</v>
       </c>
-      <c r="M78" t="s">
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>343</v>
       </c>
@@ -8442,11 +8679,14 @@
       <c r="L79" t="s">
         <v>22</v>
       </c>
-      <c r="M79" t="s">
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>361</v>
       </c>
@@ -8483,11 +8723,14 @@
       <c r="L80" t="s">
         <v>22</v>
       </c>
-      <c r="M80" t="s">
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>343</v>
       </c>
@@ -8524,11 +8767,14 @@
       <c r="L81" t="s">
         <v>22</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>55</v>
       </c>
@@ -8565,11 +8811,14 @@
       <c r="L82" t="s">
         <v>53</v>
       </c>
-      <c r="M82" t="s">
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>266</v>
       </c>
@@ -8606,11 +8855,14 @@
       <c r="L83" t="s">
         <v>22</v>
       </c>
-      <c r="M83" t="s">
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>283</v>
       </c>
@@ -8647,11 +8899,14 @@
       <c r="L84" t="s">
         <v>22</v>
       </c>
-      <c r="M84" t="s">
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>116</v>
       </c>
@@ -8688,11 +8943,14 @@
       <c r="L85" t="s">
         <v>53</v>
       </c>
-      <c r="M85" t="s">
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>116</v>
       </c>
@@ -8729,11 +8987,14 @@
       <c r="L86" t="s">
         <v>53</v>
       </c>
-      <c r="M86" t="s">
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>277</v>
       </c>
@@ -8770,11 +9031,14 @@
       <c r="L87" t="s">
         <v>22</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>33</v>
       </c>
@@ -8811,11 +9075,14 @@
       <c r="L88" t="s">
         <v>22</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>33</v>
       </c>
@@ -8852,11 +9119,14 @@
       <c r="L89" t="s">
         <v>22</v>
       </c>
-      <c r="M89" t="s">
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>127</v>
       </c>
@@ -8893,11 +9163,14 @@
       <c r="L90" t="s">
         <v>22</v>
       </c>
-      <c r="M90" t="s">
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>82</v>
       </c>
@@ -8934,11 +9207,14 @@
       <c r="L91" t="s">
         <v>22</v>
       </c>
-      <c r="M91" t="s">
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>71</v>
       </c>
@@ -8975,11 +9251,14 @@
       <c r="L92" t="s">
         <v>53</v>
       </c>
-      <c r="M92" t="s">
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>71</v>
       </c>
@@ -9016,11 +9295,14 @@
       <c r="L93" t="s">
         <v>53</v>
       </c>
-      <c r="M93" t="s">
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>24</v>
       </c>
@@ -9057,11 +9339,14 @@
       <c r="L94" t="s">
         <v>22</v>
       </c>
-      <c r="M94" t="s">
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>283</v>
       </c>
@@ -9098,11 +9383,14 @@
       <c r="L95" t="s">
         <v>22</v>
       </c>
-      <c r="M95" t="s">
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>71</v>
       </c>
@@ -9139,11 +9427,14 @@
       <c r="L96" t="s">
         <v>53</v>
       </c>
-      <c r="M96" t="s">
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>71</v>
       </c>
@@ -9180,11 +9471,14 @@
       <c r="L97" t="s">
         <v>53</v>
       </c>
-      <c r="M97" t="s">
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>283</v>
       </c>
@@ -9221,11 +9515,14 @@
       <c r="L98" t="s">
         <v>22</v>
       </c>
-      <c r="M98" t="s">
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>77</v>
       </c>
@@ -9262,11 +9559,14 @@
       <c r="L99" t="s">
         <v>53</v>
       </c>
-      <c r="M99" t="s">
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>71</v>
       </c>
@@ -9303,11 +9603,14 @@
       <c r="L100" t="s">
         <v>53</v>
       </c>
-      <c r="M100" t="s">
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>194</v>
       </c>
@@ -9344,11 +9647,14 @@
       <c r="L101" t="s">
         <v>22</v>
       </c>
-      <c r="M101" t="s">
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>24</v>
       </c>
@@ -9385,11 +9691,14 @@
       <c r="L102" t="s">
         <v>22</v>
       </c>
-      <c r="M102" t="s">
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>60</v>
       </c>
@@ -9426,11 +9735,14 @@
       <c r="L103" t="s">
         <v>22</v>
       </c>
-      <c r="M103" t="s">
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>82</v>
       </c>
@@ -9467,11 +9779,14 @@
       <c r="L104" t="s">
         <v>22</v>
       </c>
-      <c r="M104" t="s">
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>41</v>
       </c>
@@ -9508,11 +9823,14 @@
       <c r="L105" t="s">
         <v>75</v>
       </c>
-      <c r="M105" t="s">
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -9549,11 +9867,14 @@
       <c r="L106" t="s">
         <v>53</v>
       </c>
-      <c r="M106" t="s">
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>71</v>
       </c>
@@ -9590,11 +9911,14 @@
       <c r="L107" t="s">
         <v>53</v>
       </c>
-      <c r="M107" t="s">
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -9631,11 +9955,14 @@
       <c r="L108" t="s">
         <v>22</v>
       </c>
-      <c r="M108" t="s">
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>287</v>
       </c>
@@ -9672,11 +9999,14 @@
       <c r="L109" t="s">
         <v>22</v>
       </c>
-      <c r="M109" t="s">
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>238</v>
       </c>
@@ -9713,11 +10043,14 @@
       <c r="L110" t="s">
         <v>22</v>
       </c>
-      <c r="M110" t="s">
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>283</v>
       </c>
@@ -9754,11 +10087,14 @@
       <c r="L111" t="s">
         <v>22</v>
       </c>
-      <c r="M111" t="s">
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>283</v>
       </c>
@@ -9795,11 +10131,14 @@
       <c r="L112" t="s">
         <v>22</v>
       </c>
-      <c r="M112" t="s">
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>77</v>
       </c>
@@ -9836,11 +10175,14 @@
       <c r="L113" t="s">
         <v>53</v>
       </c>
-      <c r="M113" t="s">
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>55</v>
       </c>
@@ -9877,11 +10219,14 @@
       <c r="L114" t="s">
         <v>53</v>
       </c>
-      <c r="M114" t="s">
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>55</v>
       </c>
@@ -9918,11 +10263,14 @@
       <c r="L115" t="s">
         <v>53</v>
       </c>
-      <c r="M115" t="s">
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>71</v>
       </c>
@@ -9959,11 +10307,14 @@
       <c r="L116" t="s">
         <v>53</v>
       </c>
-      <c r="M116" t="s">
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>55</v>
       </c>
@@ -10000,11 +10351,14 @@
       <c r="L117" t="s">
         <v>53</v>
       </c>
-      <c r="M117" t="s">
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>82</v>
       </c>
@@ -10041,11 +10395,14 @@
       <c r="L118" t="s">
         <v>22</v>
       </c>
-      <c r="M118" t="s">
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>277</v>
       </c>
@@ -10082,11 +10439,14 @@
       <c r="L119" t="s">
         <v>22</v>
       </c>
-      <c r="M119" t="s">
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>127</v>
       </c>
@@ -10123,11 +10483,14 @@
       <c r="L120" t="s">
         <v>22</v>
       </c>
-      <c r="M120" t="s">
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>71</v>
       </c>
@@ -10164,11 +10527,14 @@
       <c r="L121" t="s">
         <v>53</v>
       </c>
-      <c r="M121" t="s">
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>194</v>
       </c>
@@ -10205,11 +10571,14 @@
       <c r="L122" t="s">
         <v>22</v>
       </c>
-      <c r="M122" t="s">
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>71</v>
       </c>
@@ -10246,11 +10615,14 @@
       <c r="L123" t="s">
         <v>53</v>
       </c>
-      <c r="M123" t="s">
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>33</v>
       </c>
@@ -10287,11 +10659,14 @@
       <c r="L124" t="s">
         <v>22</v>
       </c>
-      <c r="M124" t="s">
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>178</v>
       </c>
@@ -10328,11 +10703,14 @@
       <c r="L125" t="s">
         <v>22</v>
       </c>
-      <c r="M125" t="s">
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>194</v>
       </c>
@@ -10369,11 +10747,14 @@
       <c r="L126" t="s">
         <v>22</v>
       </c>
-      <c r="M126" t="s">
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>194</v>
       </c>
@@ -10410,11 +10791,14 @@
       <c r="L127" t="s">
         <v>22</v>
       </c>
-      <c r="M127" t="s">
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>194</v>
       </c>
@@ -10451,11 +10835,14 @@
       <c r="L128" t="s">
         <v>22</v>
       </c>
-      <c r="M128" t="s">
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>71</v>
       </c>
@@ -10492,11 +10879,14 @@
       <c r="L129" t="s">
         <v>53</v>
       </c>
-      <c r="M129" t="s">
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>71</v>
       </c>
@@ -10533,11 +10923,14 @@
       <c r="L130" t="s">
         <v>53</v>
       </c>
-      <c r="M130" t="s">
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>527</v>
       </c>
@@ -10574,11 +10967,14 @@
       <c r="L131" t="s">
         <v>22</v>
       </c>
-      <c r="M131" t="s">
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>122</v>
       </c>
@@ -10615,11 +11011,14 @@
       <c r="L132" t="s">
         <v>22</v>
       </c>
-      <c r="M132" t="s">
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>24</v>
       </c>
@@ -10656,11 +11055,14 @@
       <c r="L133" t="s">
         <v>22</v>
       </c>
-      <c r="M133" t="s">
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>116</v>
       </c>
@@ -10697,11 +11099,14 @@
       <c r="L134" t="s">
         <v>53</v>
       </c>
-      <c r="M134" t="s">
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>309</v>
       </c>
@@ -10738,11 +11143,14 @@
       <c r="L135" t="s">
         <v>22</v>
       </c>
-      <c r="M135" t="s">
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>547</v>
       </c>
@@ -10779,11 +11187,14 @@
       <c r="L136" t="s">
         <v>22</v>
       </c>
-      <c r="M136" t="s">
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>82</v>
       </c>
@@ -10820,11 +11231,14 @@
       <c r="L137" t="s">
         <v>22</v>
       </c>
-      <c r="M137" t="s">
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>238</v>
       </c>
@@ -10861,11 +11275,14 @@
       <c r="L138" t="s">
         <v>22</v>
       </c>
-      <c r="M138" t="s">
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>49</v>
       </c>
@@ -10902,11 +11319,14 @@
       <c r="L139" t="s">
         <v>53</v>
       </c>
-      <c r="M139" t="s">
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>93</v>
       </c>
@@ -10943,11 +11363,14 @@
       <c r="L140" t="s">
         <v>53</v>
       </c>
-      <c r="M140" t="s">
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>122</v>
       </c>
@@ -10984,11 +11407,14 @@
       <c r="L141" t="s">
         <v>22</v>
       </c>
-      <c r="M141" t="s">
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>41</v>
       </c>
@@ -11025,11 +11451,14 @@
       <c r="L142" t="s">
         <v>22</v>
       </c>
-      <c r="M142" t="s">
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>287</v>
       </c>
@@ -11066,11 +11495,14 @@
       <c r="L143" t="s">
         <v>22</v>
       </c>
-      <c r="M143" t="s">
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>116</v>
       </c>
@@ -11107,11 +11539,14 @@
       <c r="L144" t="s">
         <v>53</v>
       </c>
-      <c r="M144" t="s">
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>194</v>
       </c>
@@ -11148,11 +11583,14 @@
       <c r="L145" t="s">
         <v>22</v>
       </c>
-      <c r="M145" t="s">
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>82</v>
       </c>
@@ -11189,11 +11627,14 @@
       <c r="L146" t="s">
         <v>22</v>
       </c>
-      <c r="M146" t="s">
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>266</v>
       </c>
@@ -11230,11 +11671,14 @@
       <c r="L147" t="s">
         <v>53</v>
       </c>
-      <c r="M147" t="s">
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>71</v>
       </c>
@@ -11271,11 +11715,14 @@
       <c r="L148" t="s">
         <v>53</v>
       </c>
-      <c r="M148" t="s">
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>82</v>
       </c>
@@ -11312,11 +11759,14 @@
       <c r="L149" t="s">
         <v>22</v>
       </c>
-      <c r="M149" t="s">
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>587</v>
       </c>
@@ -11353,11 +11803,14 @@
       <c r="L150" t="s">
         <v>22</v>
       </c>
-      <c r="M150" t="s">
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>41</v>
       </c>
@@ -11394,11 +11847,14 @@
       <c r="L151" t="s">
         <v>22</v>
       </c>
-      <c r="M151" t="s">
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>60</v>
       </c>
@@ -11435,11 +11891,14 @@
       <c r="L152" t="s">
         <v>22</v>
       </c>
-      <c r="M152" t="s">
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>283</v>
       </c>
@@ -11476,11 +11935,14 @@
       <c r="L153" t="s">
         <v>22</v>
       </c>
-      <c r="M153" t="s">
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>603</v>
       </c>
@@ -11517,11 +11979,14 @@
       <c r="L154" t="s">
         <v>22</v>
       </c>
-      <c r="M154" t="s">
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>607</v>
       </c>
@@ -11558,11 +12023,14 @@
       <c r="L155" t="s">
         <v>22</v>
       </c>
-      <c r="M155" t="s">
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>607</v>
       </c>
@@ -11599,11 +12067,14 @@
       <c r="L156" t="s">
         <v>22</v>
       </c>
-      <c r="M156" t="s">
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>343</v>
       </c>
@@ -11640,11 +12111,14 @@
       <c r="L157" t="s">
         <v>22</v>
       </c>
-      <c r="M157" t="s">
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>110</v>
       </c>
@@ -11681,11 +12155,14 @@
       <c r="L158" t="s">
         <v>53</v>
       </c>
-      <c r="M158" t="s">
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>33</v>
       </c>
@@ -11722,11 +12199,14 @@
       <c r="L159" t="s">
         <v>22</v>
       </c>
-      <c r="M159" t="s">
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>547</v>
       </c>
@@ -11763,11 +12243,14 @@
       <c r="L160" t="s">
         <v>22</v>
       </c>
-      <c r="M160" t="s">
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>93</v>
       </c>
@@ -11804,11 +12287,14 @@
       <c r="L161" t="s">
         <v>53</v>
       </c>
-      <c r="M161" t="s">
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>178</v>
       </c>
@@ -11845,11 +12331,14 @@
       <c r="L162" t="s">
         <v>22</v>
       </c>
-      <c r="M162" t="s">
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>238</v>
       </c>
@@ -11886,11 +12375,14 @@
       <c r="L163" t="s">
         <v>22</v>
       </c>
-      <c r="M163" t="s">
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>93</v>
       </c>
@@ -11927,11 +12419,14 @@
       <c r="L164" t="s">
         <v>53</v>
       </c>
-      <c r="M164" t="s">
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>361</v>
       </c>
@@ -11968,11 +12463,14 @@
       <c r="L165" t="s">
         <v>22</v>
       </c>
-      <c r="M165" t="s">
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>266</v>
       </c>
@@ -12009,11 +12507,14 @@
       <c r="L166" t="s">
         <v>53</v>
       </c>
-      <c r="M166" t="s">
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>71</v>
       </c>
@@ -12050,11 +12551,14 @@
       <c r="L167" t="s">
         <v>53</v>
       </c>
-      <c r="M167" t="s">
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>292</v>
       </c>
@@ -12091,11 +12595,14 @@
       <c r="L168" t="s">
         <v>22</v>
       </c>
-      <c r="M168" t="s">
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>649</v>
       </c>
@@ -12132,11 +12639,14 @@
       <c r="L169" t="s">
         <v>22</v>
       </c>
-      <c r="M169" t="s">
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>343</v>
       </c>
@@ -12173,11 +12683,14 @@
       <c r="L170" t="s">
         <v>22</v>
       </c>
-      <c r="M170" t="s">
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>116</v>
       </c>
@@ -12214,11 +12727,14 @@
       <c r="L171" t="s">
         <v>53</v>
       </c>
-      <c r="M171" t="s">
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>659</v>
       </c>
@@ -12255,11 +12771,14 @@
       <c r="L172" t="s">
         <v>22</v>
       </c>
-      <c r="M172" t="s">
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>663</v>
       </c>
@@ -12296,11 +12815,14 @@
       <c r="L173" t="s">
         <v>53</v>
       </c>
-      <c r="M173" t="s">
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>24</v>
       </c>
@@ -12337,11 +12859,14 @@
       <c r="L174" t="s">
         <v>53</v>
       </c>
-      <c r="M174" t="s">
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>223</v>
       </c>
@@ -12378,11 +12903,14 @@
       <c r="L175" t="s">
         <v>53</v>
       </c>
-      <c r="M175" t="s">
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>283</v>
       </c>
@@ -12419,11 +12947,14 @@
       <c r="L176" t="s">
         <v>22</v>
       </c>
-      <c r="M176" t="s">
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>277</v>
       </c>
@@ -12460,11 +12991,14 @@
       <c r="L177" t="s">
         <v>22</v>
       </c>
-      <c r="M177" t="s">
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>607</v>
       </c>
@@ -12501,11 +13035,14 @@
       <c r="L178" t="s">
         <v>22</v>
       </c>
-      <c r="M178" t="s">
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>49</v>
       </c>
@@ -12542,11 +13079,14 @@
       <c r="L179" t="s">
         <v>53</v>
       </c>
-      <c r="M179" t="s">
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>49</v>
       </c>
@@ -12583,11 +13123,14 @@
       <c r="L180" t="s">
         <v>53</v>
       </c>
-      <c r="M180" t="s">
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>82</v>
       </c>
@@ -12624,11 +13167,14 @@
       <c r="L181" t="s">
         <v>22</v>
       </c>
-      <c r="M181" t="s">
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>41</v>
       </c>
@@ -12665,11 +13211,14 @@
       <c r="L182" t="s">
         <v>22</v>
       </c>
-      <c r="M182" t="s">
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>287</v>
       </c>
@@ -12706,11 +13255,14 @@
       <c r="L183" t="s">
         <v>22</v>
       </c>
-      <c r="M183" t="s">
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>178</v>
       </c>
@@ -12747,11 +13299,14 @@
       <c r="L184" t="s">
         <v>22</v>
       </c>
-      <c r="M184" t="s">
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>110</v>
       </c>
@@ -12788,11 +13343,14 @@
       <c r="L185" t="s">
         <v>53</v>
       </c>
-      <c r="M185" t="s">
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>55</v>
       </c>
@@ -12829,11 +13387,14 @@
       <c r="L186" t="s">
         <v>53</v>
       </c>
-      <c r="M186" t="s">
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>194</v>
       </c>
@@ -12870,11 +13431,14 @@
       <c r="L187" t="s">
         <v>22</v>
       </c>
-      <c r="M187" t="s">
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>194</v>
       </c>
@@ -12911,11 +13475,14 @@
       <c r="L188" t="s">
         <v>22</v>
       </c>
-      <c r="M188" t="s">
+      <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>71</v>
       </c>
@@ -12952,11 +13519,14 @@
       <c r="L189" t="s">
         <v>53</v>
       </c>
-      <c r="M189" t="s">
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>238</v>
       </c>
@@ -12993,11 +13563,14 @@
       <c r="L190" t="s">
         <v>22</v>
       </c>
-      <c r="M190" t="s">
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>71</v>
       </c>
@@ -13034,11 +13607,14 @@
       <c r="L191" t="s">
         <v>53</v>
       </c>
-      <c r="M191" t="s">
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>194</v>
       </c>
@@ -13075,11 +13651,14 @@
       <c r="L192" t="s">
         <v>22</v>
       </c>
-      <c r="M192" t="s">
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>194</v>
       </c>
@@ -13116,11 +13695,14 @@
       <c r="L193" t="s">
         <v>22</v>
       </c>
-      <c r="M193" t="s">
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>71</v>
       </c>
@@ -13157,11 +13739,14 @@
       <c r="L194" t="s">
         <v>53</v>
       </c>
-      <c r="M194" t="s">
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>71</v>
       </c>
@@ -13198,11 +13783,14 @@
       <c r="L195" t="s">
         <v>53</v>
       </c>
-      <c r="M195" t="s">
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>266</v>
       </c>
@@ -13239,11 +13827,14 @@
       <c r="L196" t="s">
         <v>22</v>
       </c>
-      <c r="M196" t="s">
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>266</v>
       </c>
@@ -13280,11 +13871,14 @@
       <c r="L197" t="s">
         <v>53</v>
       </c>
-      <c r="M197" t="s">
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>127</v>
       </c>
@@ -13321,11 +13915,14 @@
       <c r="L198" t="s">
         <v>22</v>
       </c>
-      <c r="M198" t="s">
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>77</v>
       </c>
@@ -13362,11 +13959,14 @@
       <c r="L199" t="s">
         <v>53</v>
       </c>
-      <c r="M199" t="s">
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>127</v>
       </c>
@@ -13403,11 +14003,14 @@
       <c r="L200" t="s">
         <v>22</v>
       </c>
-      <c r="M200" t="s">
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>127</v>
       </c>
@@ -13444,11 +14047,14 @@
       <c r="L201" t="s">
         <v>22</v>
       </c>
-      <c r="M201" t="s">
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>127</v>
       </c>
@@ -13485,11 +14091,14 @@
       <c r="L202" t="s">
         <v>22</v>
       </c>
-      <c r="M202" t="s">
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>607</v>
       </c>
@@ -13526,11 +14135,14 @@
       <c r="L203" t="s">
         <v>22</v>
       </c>
-      <c r="M203" t="s">
+      <c r="M203">
+        <v>1</v>
+      </c>
+      <c r="N203" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>127</v>
       </c>
@@ -13567,11 +14179,14 @@
       <c r="L204" t="s">
         <v>22</v>
       </c>
-      <c r="M204" t="s">
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>757</v>
       </c>
@@ -13608,11 +14223,14 @@
       <c r="L205" t="s">
         <v>22</v>
       </c>
-      <c r="M205" t="s">
+      <c r="M205">
+        <v>1</v>
+      </c>
+      <c r="N205" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>287</v>
       </c>
@@ -13649,11 +14267,14 @@
       <c r="L206" t="s">
         <v>22</v>
       </c>
-      <c r="M206" t="s">
+      <c r="M206">
+        <v>1</v>
+      </c>
+      <c r="N206" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>127</v>
       </c>
@@ -13690,11 +14311,14 @@
       <c r="L207" t="s">
         <v>22</v>
       </c>
-      <c r="M207" t="s">
+      <c r="M207">
+        <v>0</v>
+      </c>
+      <c r="N207" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>178</v>
       </c>
@@ -13731,11 +14355,14 @@
       <c r="L208" t="s">
         <v>22</v>
       </c>
-      <c r="M208" t="s">
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>77</v>
       </c>
@@ -13772,11 +14399,14 @@
       <c r="L209" t="s">
         <v>53</v>
       </c>
-      <c r="M209" t="s">
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>77</v>
       </c>
@@ -13813,11 +14443,14 @@
       <c r="L210" t="s">
         <v>53</v>
       </c>
-      <c r="M210" t="s">
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>49</v>
       </c>
@@ -13854,11 +14487,14 @@
       <c r="L211" t="s">
         <v>53</v>
       </c>
-      <c r="M211" t="s">
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>77</v>
       </c>
@@ -13895,11 +14531,14 @@
       <c r="L212" t="s">
         <v>53</v>
       </c>
-      <c r="M212" t="s">
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>194</v>
       </c>
@@ -13936,11 +14575,14 @@
       <c r="L213" t="s">
         <v>22</v>
       </c>
-      <c r="M213" t="s">
+      <c r="M213">
+        <v>1</v>
+      </c>
+      <c r="N213" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>116</v>
       </c>
@@ -13977,11 +14619,14 @@
       <c r="L214" t="s">
         <v>53</v>
       </c>
-      <c r="M214" t="s">
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>33</v>
       </c>
@@ -14018,11 +14663,14 @@
       <c r="L215" t="s">
         <v>22</v>
       </c>
-      <c r="M215" t="s">
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>607</v>
       </c>
@@ -14059,11 +14707,14 @@
       <c r="L216" t="s">
         <v>22</v>
       </c>
-      <c r="M216" t="s">
+      <c r="M216">
+        <v>1</v>
+      </c>
+      <c r="N216" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>607</v>
       </c>
@@ -14100,11 +14751,14 @@
       <c r="L217" t="s">
         <v>22</v>
       </c>
-      <c r="M217" t="s">
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>266</v>
       </c>
@@ -14141,11 +14795,14 @@
       <c r="L218" t="s">
         <v>53</v>
       </c>
-      <c r="M218" t="s">
+      <c r="M218">
+        <v>1</v>
+      </c>
+      <c r="N218" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>77</v>
       </c>
@@ -14182,11 +14839,14 @@
       <c r="L219" t="s">
         <v>53</v>
       </c>
-      <c r="M219" t="s">
+      <c r="M219">
+        <v>0</v>
+      </c>
+      <c r="N219" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>292</v>
       </c>
@@ -14223,11 +14883,14 @@
       <c r="L220" t="s">
         <v>22</v>
       </c>
-      <c r="M220" t="s">
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>41</v>
       </c>
@@ -14264,11 +14927,14 @@
       <c r="L221" t="s">
         <v>22</v>
       </c>
-      <c r="M221" t="s">
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>809</v>
       </c>
@@ -14305,11 +14971,14 @@
       <c r="L222" t="s">
         <v>22</v>
       </c>
-      <c r="M222" t="s">
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>127</v>
       </c>
@@ -14346,11 +15015,14 @@
       <c r="L223" t="s">
         <v>22</v>
       </c>
-      <c r="M223" t="s">
+      <c r="M223">
+        <v>1</v>
+      </c>
+      <c r="N223" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>283</v>
       </c>
@@ -14387,11 +15059,14 @@
       <c r="L224" t="s">
         <v>22</v>
       </c>
-      <c r="M224" t="s">
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>49</v>
       </c>
@@ -14428,11 +15103,14 @@
       <c r="L225" t="s">
         <v>53</v>
       </c>
-      <c r="M225" t="s">
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>277</v>
       </c>
@@ -14469,11 +15147,14 @@
       <c r="L226" t="s">
         <v>22</v>
       </c>
-      <c r="M226" t="s">
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>116</v>
       </c>
@@ -14510,11 +15191,14 @@
       <c r="L227" t="s">
         <v>53</v>
       </c>
-      <c r="M227" t="s">
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>827</v>
       </c>
@@ -14551,11 +15235,14 @@
       <c r="L228" t="s">
         <v>53</v>
       </c>
-      <c r="M228" t="s">
+      <c r="M228">
+        <v>1</v>
+      </c>
+      <c r="N228" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>41</v>
       </c>
@@ -14592,11 +15279,14 @@
       <c r="L229" t="s">
         <v>22</v>
       </c>
-      <c r="M229" t="s">
+      <c r="M229">
+        <v>1</v>
+      </c>
+      <c r="N229" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>603</v>
       </c>
@@ -14633,11 +15323,14 @@
       <c r="L230" t="s">
         <v>22</v>
       </c>
-      <c r="M230" t="s">
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>238</v>
       </c>
@@ -14674,11 +15367,14 @@
       <c r="L231" t="s">
         <v>22</v>
       </c>
-      <c r="M231" t="s">
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>277</v>
       </c>
@@ -14715,11 +15411,14 @@
       <c r="L232" t="s">
         <v>22</v>
       </c>
-      <c r="M232" t="s">
+      <c r="M232">
+        <v>1</v>
+      </c>
+      <c r="N232" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>77</v>
       </c>
@@ -14756,11 +15455,14 @@
       <c r="L233" t="s">
         <v>53</v>
       </c>
-      <c r="M233" t="s">
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>194</v>
       </c>
@@ -14797,11 +15499,14 @@
       <c r="L234" t="s">
         <v>22</v>
       </c>
-      <c r="M234" t="s">
+      <c r="M234">
+        <v>1</v>
+      </c>
+      <c r="N234" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>194</v>
       </c>
@@ -14838,11 +15543,14 @@
       <c r="L235" t="s">
         <v>22</v>
       </c>
-      <c r="M235" t="s">
+      <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>266</v>
       </c>
@@ -14879,11 +15587,14 @@
       <c r="L236" t="s">
         <v>22</v>
       </c>
-      <c r="M236" t="s">
+      <c r="M236">
+        <v>1</v>
+      </c>
+      <c r="N236" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>194</v>
       </c>
@@ -14920,11 +15631,14 @@
       <c r="L237" t="s">
         <v>22</v>
       </c>
-      <c r="M237" t="s">
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>194</v>
       </c>
@@ -14961,11 +15675,14 @@
       <c r="L238" t="s">
         <v>22</v>
       </c>
-      <c r="M238" t="s">
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>527</v>
       </c>
@@ -15002,11 +15719,14 @@
       <c r="L239" t="s">
         <v>22</v>
       </c>
-      <c r="M239" t="s">
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>527</v>
       </c>
@@ -15043,11 +15763,14 @@
       <c r="L240" t="s">
         <v>22</v>
       </c>
-      <c r="M240" t="s">
+      <c r="M240">
+        <v>1</v>
+      </c>
+      <c r="N240" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>66</v>
       </c>
@@ -15084,11 +15807,14 @@
       <c r="L241" t="s">
         <v>22</v>
       </c>
-      <c r="M241" t="s">
+      <c r="M241">
+        <v>1</v>
+      </c>
+      <c r="N241" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>194</v>
       </c>
@@ -15125,11 +15851,14 @@
       <c r="L242" t="s">
         <v>22</v>
       </c>
-      <c r="M242" t="s">
+      <c r="M242">
+        <v>0</v>
+      </c>
+      <c r="N242" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>587</v>
       </c>
@@ -15166,11 +15895,14 @@
       <c r="L243" t="s">
         <v>22</v>
       </c>
-      <c r="M243" t="s">
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>49</v>
       </c>
@@ -15207,11 +15939,14 @@
       <c r="L244" t="s">
         <v>53</v>
       </c>
-      <c r="M244" t="s">
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>266</v>
       </c>
@@ -15248,11 +15983,14 @@
       <c r="L245" t="s">
         <v>53</v>
       </c>
-      <c r="M245" t="s">
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>277</v>
       </c>
@@ -15289,11 +16027,14 @@
       <c r="L246" t="s">
         <v>22</v>
       </c>
-      <c r="M246" t="s">
+      <c r="M246">
+        <v>1</v>
+      </c>
+      <c r="N246" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>361</v>
       </c>
@@ -15330,11 +16071,14 @@
       <c r="L247" t="s">
         <v>22</v>
       </c>
-      <c r="M247" t="s">
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>82</v>
       </c>
@@ -15371,11 +16115,14 @@
       <c r="L248" t="s">
         <v>22</v>
       </c>
-      <c r="M248" t="s">
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>809</v>
       </c>
@@ -15412,11 +16159,14 @@
       <c r="L249" t="s">
         <v>22</v>
       </c>
-      <c r="M249" t="s">
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>266</v>
       </c>
@@ -15453,11 +16203,14 @@
       <c r="L250" t="s">
         <v>22</v>
       </c>
-      <c r="M250" t="s">
+      <c r="M250">
+        <v>1</v>
+      </c>
+      <c r="N250" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>71</v>
       </c>
@@ -15494,11 +16247,14 @@
       <c r="L251" t="s">
         <v>53</v>
       </c>
-      <c r="M251" t="s">
+      <c r="M251">
+        <v>1</v>
+      </c>
+      <c r="N251" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>116</v>
       </c>
@@ -15535,11 +16291,14 @@
       <c r="L252" t="s">
         <v>53</v>
       </c>
-      <c r="M252" t="s">
+      <c r="M252">
+        <v>0</v>
+      </c>
+      <c r="N252" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>194</v>
       </c>
@@ -15576,11 +16335,14 @@
       <c r="L253" t="s">
         <v>22</v>
       </c>
-      <c r="M253" t="s">
+      <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>60</v>
       </c>
@@ -15617,11 +16379,14 @@
       <c r="L254" t="s">
         <v>22</v>
       </c>
-      <c r="M254" t="s">
+      <c r="M254">
+        <v>0</v>
+      </c>
+      <c r="N254" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>71</v>
       </c>
@@ -15658,11 +16423,14 @@
       <c r="L255" t="s">
         <v>53</v>
       </c>
-      <c r="M255" t="s">
+      <c r="M255">
+        <v>0</v>
+      </c>
+      <c r="N255" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>116</v>
       </c>
@@ -15699,11 +16467,14 @@
       <c r="L256" t="s">
         <v>53</v>
       </c>
-      <c r="M256" t="s">
+      <c r="M256">
+        <v>1</v>
+      </c>
+      <c r="N256" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>82</v>
       </c>
@@ -15740,11 +16511,14 @@
       <c r="L257" t="s">
         <v>22</v>
       </c>
-      <c r="M257" t="s">
+      <c r="M257">
+        <v>0</v>
+      </c>
+      <c r="N257" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>547</v>
       </c>
@@ -15781,11 +16555,14 @@
       <c r="L258" t="s">
         <v>22</v>
       </c>
-      <c r="M258" t="s">
+      <c r="M258">
+        <v>0</v>
+      </c>
+      <c r="N258" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>82</v>
       </c>
@@ -15822,11 +16599,14 @@
       <c r="L259" t="s">
         <v>22</v>
       </c>
-      <c r="M259" t="s">
+      <c r="M259">
+        <v>0</v>
+      </c>
+      <c r="N259" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>361</v>
       </c>
@@ -15863,11 +16643,14 @@
       <c r="L260" t="s">
         <v>22</v>
       </c>
-      <c r="M260" t="s">
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>82</v>
       </c>
@@ -15904,11 +16687,14 @@
       <c r="L261" t="s">
         <v>22</v>
       </c>
-      <c r="M261" t="s">
+      <c r="M261">
+        <v>0</v>
+      </c>
+      <c r="N261" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>82</v>
       </c>
@@ -15945,11 +16731,14 @@
       <c r="L262" t="s">
         <v>22</v>
       </c>
-      <c r="M262" t="s">
+      <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>587</v>
       </c>
@@ -15986,11 +16775,14 @@
       <c r="L263" t="s">
         <v>22</v>
       </c>
-      <c r="M263" t="s">
+      <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>266</v>
       </c>
@@ -16027,11 +16819,14 @@
       <c r="L264" t="s">
         <v>53</v>
       </c>
-      <c r="M264" t="s">
+      <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>49</v>
       </c>
@@ -16068,11 +16863,14 @@
       <c r="L265" t="s">
         <v>53</v>
       </c>
-      <c r="M265" t="s">
+      <c r="M265">
+        <v>1</v>
+      </c>
+      <c r="N265" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>49</v>
       </c>
@@ -16109,11 +16907,14 @@
       <c r="L266" t="s">
         <v>53</v>
       </c>
-      <c r="M266" t="s">
+      <c r="M266">
+        <v>0</v>
+      </c>
+      <c r="N266" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>238</v>
       </c>
@@ -16150,11 +16951,14 @@
       <c r="L267" t="s">
         <v>22</v>
       </c>
-      <c r="M267" t="s">
+      <c r="M267">
+        <v>0</v>
+      </c>
+      <c r="N267" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>116</v>
       </c>
@@ -16191,11 +16995,14 @@
       <c r="L268" t="s">
         <v>53</v>
       </c>
-      <c r="M268" t="s">
+      <c r="M268">
+        <v>0</v>
+      </c>
+      <c r="N268" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>77</v>
       </c>
@@ -16232,11 +17039,14 @@
       <c r="L269" t="s">
         <v>53</v>
       </c>
-      <c r="M269" t="s">
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>55</v>
       </c>
@@ -16273,11 +17083,14 @@
       <c r="L270" t="s">
         <v>53</v>
       </c>
-      <c r="M270" t="s">
+      <c r="M270">
+        <v>1</v>
+      </c>
+      <c r="N270" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>283</v>
       </c>
@@ -16314,11 +17127,14 @@
       <c r="L271" t="s">
         <v>22</v>
       </c>
-      <c r="M271" t="s">
+      <c r="M271">
+        <v>1</v>
+      </c>
+      <c r="N271" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>77</v>
       </c>
@@ -16355,11 +17171,14 @@
       <c r="L272" t="s">
         <v>53</v>
       </c>
-      <c r="M272" t="s">
+      <c r="M272">
+        <v>0</v>
+      </c>
+      <c r="N272" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>55</v>
       </c>
@@ -16396,11 +17215,14 @@
       <c r="L273" t="s">
         <v>53</v>
       </c>
-      <c r="M273" t="s">
+      <c r="M273">
+        <v>1</v>
+      </c>
+      <c r="N273" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>963</v>
       </c>
@@ -16437,11 +17259,14 @@
       <c r="L274" t="s">
         <v>22</v>
       </c>
-      <c r="M274" t="s">
+      <c r="M274">
+        <v>1</v>
+      </c>
+      <c r="N274" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>116</v>
       </c>
@@ -16478,11 +17303,14 @@
       <c r="L275" t="s">
         <v>53</v>
       </c>
-      <c r="M275" t="s">
+      <c r="M275">
+        <v>1</v>
+      </c>
+      <c r="N275" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>77</v>
       </c>
@@ -16519,11 +17347,14 @@
       <c r="L276" t="s">
         <v>53</v>
       </c>
-      <c r="M276" t="s">
+      <c r="M276">
+        <v>0</v>
+      </c>
+      <c r="N276" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>194</v>
       </c>
@@ -16560,11 +17391,14 @@
       <c r="L277" t="s">
         <v>22</v>
       </c>
-      <c r="M277" t="s">
+      <c r="M277">
+        <v>0</v>
+      </c>
+      <c r="N277" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>55</v>
       </c>
@@ -16601,11 +17435,14 @@
       <c r="L278" t="s">
         <v>53</v>
       </c>
-      <c r="M278" t="s">
+      <c r="M278">
+        <v>1</v>
+      </c>
+      <c r="N278" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>194</v>
       </c>
@@ -16642,11 +17479,14 @@
       <c r="L279" t="s">
         <v>22</v>
       </c>
-      <c r="M279" t="s">
+      <c r="M279">
+        <v>0</v>
+      </c>
+      <c r="N279" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>82</v>
       </c>
@@ -16683,11 +17523,14 @@
       <c r="L280" t="s">
         <v>22</v>
       </c>
-      <c r="M280" t="s">
+      <c r="M280">
+        <v>0</v>
+      </c>
+      <c r="N280" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>194</v>
       </c>
@@ -16724,11 +17567,14 @@
       <c r="L281" t="s">
         <v>22</v>
       </c>
-      <c r="M281" t="s">
+      <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>277</v>
       </c>
@@ -16765,11 +17611,14 @@
       <c r="L282" t="s">
         <v>22</v>
       </c>
-      <c r="M282" t="s">
+      <c r="M282">
+        <v>0</v>
+      </c>
+      <c r="N282" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>343</v>
       </c>
@@ -16806,11 +17655,14 @@
       <c r="L283" t="s">
         <v>22</v>
       </c>
-      <c r="M283" t="s">
+      <c r="M283">
+        <v>0</v>
+      </c>
+      <c r="N283" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>33</v>
       </c>
@@ -16847,11 +17699,14 @@
       <c r="L284" t="s">
         <v>22</v>
       </c>
-      <c r="M284" t="s">
+      <c r="M284">
+        <v>0</v>
+      </c>
+      <c r="N284" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>127</v>
       </c>
@@ -16888,11 +17743,14 @@
       <c r="L285" t="s">
         <v>22</v>
       </c>
-      <c r="M285" t="s">
+      <c r="M285">
+        <v>0</v>
+      </c>
+      <c r="N285" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>266</v>
       </c>
@@ -16929,11 +17787,14 @@
       <c r="L286" t="s">
         <v>53</v>
       </c>
-      <c r="M286" t="s">
+      <c r="M286">
+        <v>0</v>
+      </c>
+      <c r="N286" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>24</v>
       </c>
@@ -16970,11 +17831,14 @@
       <c r="L287" t="s">
         <v>22</v>
       </c>
-      <c r="M287" t="s">
+      <c r="M287">
+        <v>0</v>
+      </c>
+      <c r="N287" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>283</v>
       </c>
@@ -17011,11 +17875,14 @@
       <c r="L288" t="s">
         <v>22</v>
       </c>
-      <c r="M288" t="s">
+      <c r="M288">
+        <v>0</v>
+      </c>
+      <c r="N288" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>116</v>
       </c>
@@ -17052,11 +17919,14 @@
       <c r="L289" t="s">
         <v>53</v>
       </c>
-      <c r="M289" t="s">
+      <c r="M289">
+        <v>0</v>
+      </c>
+      <c r="N289" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>283</v>
       </c>
@@ -17093,11 +17963,14 @@
       <c r="L290" t="s">
         <v>22</v>
       </c>
-      <c r="M290" t="s">
+      <c r="M290">
+        <v>0</v>
+      </c>
+      <c r="N290" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>24</v>
       </c>
@@ -17134,11 +18007,14 @@
       <c r="L291" t="s">
         <v>53</v>
       </c>
-      <c r="M291" t="s">
+      <c r="M291">
+        <v>0</v>
+      </c>
+      <c r="N291" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>361</v>
       </c>
@@ -17175,11 +18051,14 @@
       <c r="L292" t="s">
         <v>22</v>
       </c>
-      <c r="M292" t="s">
+      <c r="M292">
+        <v>1</v>
+      </c>
+      <c r="N292" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>238</v>
       </c>
@@ -17216,11 +18095,14 @@
       <c r="L293" t="s">
         <v>22</v>
       </c>
-      <c r="M293" t="s">
+      <c r="M293">
+        <v>1</v>
+      </c>
+      <c r="N293" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>266</v>
       </c>
@@ -17257,11 +18139,14 @@
       <c r="L294" t="s">
         <v>22</v>
       </c>
-      <c r="M294" t="s">
+      <c r="M294">
+        <v>1</v>
+      </c>
+      <c r="N294" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>71</v>
       </c>
@@ -17298,11 +18183,14 @@
       <c r="L295" t="s">
         <v>53</v>
       </c>
-      <c r="M295" t="s">
+      <c r="M295">
+        <v>0</v>
+      </c>
+      <c r="N295" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>33</v>
       </c>
@@ -17339,11 +18227,14 @@
       <c r="L296" t="s">
         <v>22</v>
       </c>
-      <c r="M296" t="s">
+      <c r="M296">
+        <v>0</v>
+      </c>
+      <c r="N296" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="297" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>71</v>
       </c>
@@ -17380,11 +18271,14 @@
       <c r="L297" t="s">
         <v>53</v>
       </c>
-      <c r="M297" t="s">
+      <c r="M297">
+        <v>0</v>
+      </c>
+      <c r="N297" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>71</v>
       </c>
@@ -17421,11 +18315,14 @@
       <c r="L298" t="s">
         <v>53</v>
       </c>
-      <c r="M298" t="s">
+      <c r="M298">
+        <v>0</v>
+      </c>
+      <c r="N298" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>60</v>
       </c>
@@ -17462,11 +18359,14 @@
       <c r="L299" t="s">
         <v>22</v>
       </c>
-      <c r="M299" t="s">
+      <c r="M299">
+        <v>0</v>
+      </c>
+      <c r="N299" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>33</v>
       </c>
@@ -17503,11 +18403,14 @@
       <c r="L300" t="s">
         <v>22</v>
       </c>
-      <c r="M300" t="s">
+      <c r="M300">
+        <v>0</v>
+      </c>
+      <c r="N300" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="301" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>266</v>
       </c>
@@ -17544,11 +18447,14 @@
       <c r="L301" t="s">
         <v>53</v>
       </c>
-      <c r="M301" t="s">
+      <c r="M301">
+        <v>0</v>
+      </c>
+      <c r="N301" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="302" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>71</v>
       </c>
@@ -17585,11 +18491,14 @@
       <c r="L302" t="s">
         <v>53</v>
       </c>
-      <c r="M302" t="s">
+      <c r="M302">
+        <v>0</v>
+      </c>
+      <c r="N302" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="303" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>33</v>
       </c>
@@ -17626,11 +18535,14 @@
       <c r="L303" t="s">
         <v>22</v>
       </c>
-      <c r="M303" t="s">
+      <c r="M303">
+        <v>0</v>
+      </c>
+      <c r="N303" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="304" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>355</v>
       </c>
@@ -17667,11 +18579,14 @@
       <c r="L304" t="s">
         <v>22</v>
       </c>
-      <c r="M304" t="s">
+      <c r="M304">
+        <v>0</v>
+      </c>
+      <c r="N304" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="305" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>587</v>
       </c>
@@ -17708,11 +18623,14 @@
       <c r="L305" t="s">
         <v>22</v>
       </c>
-      <c r="M305" t="s">
+      <c r="M305">
+        <v>0</v>
+      </c>
+      <c r="N305" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="306" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>287</v>
       </c>
@@ -17749,11 +18667,14 @@
       <c r="L306" t="s">
         <v>22</v>
       </c>
-      <c r="M306" t="s">
+      <c r="M306">
+        <v>1</v>
+      </c>
+      <c r="N306" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="307" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>41</v>
       </c>
@@ -17790,11 +18711,14 @@
       <c r="L307" t="s">
         <v>22</v>
       </c>
-      <c r="M307" t="s">
+      <c r="M307">
+        <v>1</v>
+      </c>
+      <c r="N307" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="308" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>283</v>
       </c>
@@ -17831,11 +18755,14 @@
       <c r="L308" t="s">
         <v>22</v>
       </c>
-      <c r="M308" t="s">
+      <c r="M308">
+        <v>0</v>
+      </c>
+      <c r="N308" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="309" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>178</v>
       </c>
@@ -17872,11 +18799,14 @@
       <c r="L309" t="s">
         <v>22</v>
       </c>
-      <c r="M309" t="s">
+      <c r="M309">
+        <v>1</v>
+      </c>
+      <c r="N309" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="310" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>266</v>
       </c>
@@ -17913,11 +18843,14 @@
       <c r="L310" t="s">
         <v>53</v>
       </c>
-      <c r="M310" t="s">
+      <c r="M310">
+        <v>1</v>
+      </c>
+      <c r="N310" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="311" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>178</v>
       </c>
@@ -17954,11 +18887,14 @@
       <c r="L311" t="s">
         <v>22</v>
       </c>
-      <c r="M311" t="s">
+      <c r="M311">
+        <v>0</v>
+      </c>
+      <c r="N311" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="312" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>343</v>
       </c>
@@ -17995,11 +18931,14 @@
       <c r="L312" t="s">
         <v>22</v>
       </c>
-      <c r="M312" t="s">
+      <c r="M312">
+        <v>0</v>
+      </c>
+      <c r="N312" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="313" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>33</v>
       </c>
@@ -18036,11 +18975,14 @@
       <c r="L313" t="s">
         <v>22</v>
       </c>
-      <c r="M313" t="s">
+      <c r="M313">
+        <v>0</v>
+      </c>
+      <c r="N313" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>33</v>
       </c>
@@ -18077,11 +19019,14 @@
       <c r="L314" t="s">
         <v>22</v>
       </c>
-      <c r="M314" t="s">
+      <c r="M314">
+        <v>0</v>
+      </c>
+      <c r="N314" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="315" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>71</v>
       </c>
@@ -18118,11 +19063,14 @@
       <c r="L315" t="s">
         <v>53</v>
       </c>
-      <c r="M315" t="s">
+      <c r="M315">
+        <v>0</v>
+      </c>
+      <c r="N315" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="316" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>55</v>
       </c>
@@ -18159,11 +19107,14 @@
       <c r="L316" t="s">
         <v>53</v>
       </c>
-      <c r="M316" t="s">
+      <c r="M316">
+        <v>1</v>
+      </c>
+      <c r="N316" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="317" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>527</v>
       </c>
@@ -18200,11 +19151,14 @@
       <c r="L317" t="s">
         <v>22</v>
       </c>
-      <c r="M317" t="s">
+      <c r="M317">
+        <v>1</v>
+      </c>
+      <c r="N317" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="318" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>71</v>
       </c>
@@ -18241,11 +19195,14 @@
       <c r="L318" t="s">
         <v>53</v>
       </c>
-      <c r="M318" t="s">
+      <c r="M318">
+        <v>1</v>
+      </c>
+      <c r="N318" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="319" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>283</v>
       </c>
@@ -18282,11 +19239,14 @@
       <c r="L319" t="s">
         <v>22</v>
       </c>
-      <c r="M319" t="s">
+      <c r="M319">
+        <v>0</v>
+      </c>
+      <c r="N319" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="320" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>116</v>
       </c>
@@ -18323,11 +19283,14 @@
       <c r="L320" t="s">
         <v>53</v>
       </c>
-      <c r="M320" t="s">
+      <c r="M320">
+        <v>1</v>
+      </c>
+      <c r="N320" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="321" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>277</v>
       </c>
@@ -18364,11 +19327,14 @@
       <c r="L321" t="s">
         <v>22</v>
       </c>
-      <c r="M321" t="s">
+      <c r="M321">
+        <v>0</v>
+      </c>
+      <c r="N321" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="322" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>292</v>
       </c>
@@ -18405,11 +19371,14 @@
       <c r="L322" t="s">
         <v>22</v>
       </c>
-      <c r="M322" t="s">
+      <c r="M322">
+        <v>1</v>
+      </c>
+      <c r="N322" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="323" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>127</v>
       </c>
@@ -18446,11 +19415,14 @@
       <c r="L323" t="s">
         <v>22</v>
       </c>
-      <c r="M323" t="s">
+      <c r="M323">
+        <v>0</v>
+      </c>
+      <c r="N323" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="324" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>60</v>
       </c>
@@ -18487,11 +19459,14 @@
       <c r="L324" t="s">
         <v>22</v>
       </c>
-      <c r="M324" t="s">
+      <c r="M324">
+        <v>0</v>
+      </c>
+      <c r="N324" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="325" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>194</v>
       </c>
@@ -18528,11 +19503,14 @@
       <c r="L325" t="s">
         <v>22</v>
       </c>
-      <c r="M325" t="s">
+      <c r="M325">
+        <v>0</v>
+      </c>
+      <c r="N325" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>116</v>
       </c>
@@ -18569,11 +19547,14 @@
       <c r="L326" t="s">
         <v>53</v>
       </c>
-      <c r="M326" t="s">
+      <c r="M326">
+        <v>0</v>
+      </c>
+      <c r="N326" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="327" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>116</v>
       </c>
@@ -18610,11 +19591,14 @@
       <c r="L327" t="s">
         <v>53</v>
       </c>
-      <c r="M327" t="s">
+      <c r="M327">
+        <v>0</v>
+      </c>
+      <c r="N327" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="328" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>283</v>
       </c>
@@ -18651,11 +19635,14 @@
       <c r="L328" t="s">
         <v>22</v>
       </c>
-      <c r="M328" t="s">
+      <c r="M328">
+        <v>1</v>
+      </c>
+      <c r="N328" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="329" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>547</v>
       </c>
@@ -18692,11 +19679,14 @@
       <c r="L329" t="s">
         <v>22</v>
       </c>
-      <c r="M329" t="s">
+      <c r="M329">
+        <v>0</v>
+      </c>
+      <c r="N329" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="330" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>547</v>
       </c>
@@ -18733,11 +19723,14 @@
       <c r="L330" t="s">
         <v>22</v>
       </c>
-      <c r="M330" t="s">
+      <c r="M330">
+        <v>0</v>
+      </c>
+      <c r="N330" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="331" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>547</v>
       </c>
@@ -18774,11 +19767,14 @@
       <c r="L331" t="s">
         <v>22</v>
       </c>
-      <c r="M331" t="s">
+      <c r="M331">
+        <v>0</v>
+      </c>
+      <c r="N331" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="332" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>71</v>
       </c>
@@ -18815,11 +19811,14 @@
       <c r="L332" t="s">
         <v>53</v>
       </c>
-      <c r="M332" t="s">
+      <c r="M332">
+        <v>0</v>
+      </c>
+      <c r="N332" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="333" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>71</v>
       </c>
@@ -18856,11 +19855,14 @@
       <c r="L333" t="s">
         <v>53</v>
       </c>
-      <c r="M333" t="s">
+      <c r="M333">
+        <v>0</v>
+      </c>
+      <c r="N333" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="334" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>116</v>
       </c>
@@ -18897,11 +19899,14 @@
       <c r="L334" t="s">
         <v>53</v>
       </c>
-      <c r="M334" t="s">
+      <c r="M334">
+        <v>0</v>
+      </c>
+      <c r="N334" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="335" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>71</v>
       </c>
@@ -18938,11 +19943,14 @@
       <c r="L335" t="s">
         <v>53</v>
       </c>
-      <c r="M335" t="s">
+      <c r="M335">
+        <v>0</v>
+      </c>
+      <c r="N335" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="336" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>1142</v>
       </c>
@@ -18979,11 +19987,14 @@
       <c r="L336" t="s">
         <v>22</v>
       </c>
-      <c r="M336" t="s">
+      <c r="M336">
+        <v>0</v>
+      </c>
+      <c r="N336" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="337" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>60</v>
       </c>
@@ -19020,11 +20031,14 @@
       <c r="L337" t="s">
         <v>22</v>
       </c>
-      <c r="M337" t="s">
+      <c r="M337">
+        <v>0</v>
+      </c>
+      <c r="N337" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="338" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>1149</v>
       </c>
@@ -19061,11 +20075,14 @@
       <c r="L338" t="s">
         <v>22</v>
       </c>
-      <c r="M338" t="s">
+      <c r="M338">
+        <v>0</v>
+      </c>
+      <c r="N338" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="339" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>361</v>
       </c>
@@ -19102,11 +20119,14 @@
       <c r="L339" t="s">
         <v>22</v>
       </c>
-      <c r="M339" t="s">
+      <c r="M339">
+        <v>0</v>
+      </c>
+      <c r="N339" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="340" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>277</v>
       </c>
@@ -19143,11 +20163,14 @@
       <c r="L340" t="s">
         <v>22</v>
       </c>
-      <c r="M340" t="s">
+      <c r="M340">
+        <v>0</v>
+      </c>
+      <c r="N340" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="341" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>60</v>
       </c>
@@ -19184,11 +20207,14 @@
       <c r="L341" t="s">
         <v>22</v>
       </c>
-      <c r="M341" t="s">
+      <c r="M341">
+        <v>0</v>
+      </c>
+      <c r="N341" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="342" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>1160</v>
       </c>
@@ -19225,11 +20251,14 @@
       <c r="L342" t="s">
         <v>22</v>
       </c>
-      <c r="M342" t="s">
+      <c r="M342">
+        <v>0</v>
+      </c>
+      <c r="N342" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="343" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>607</v>
       </c>
@@ -19266,11 +20295,14 @@
       <c r="L343" t="s">
         <v>22</v>
       </c>
-      <c r="M343" t="s">
+      <c r="M343">
+        <v>0</v>
+      </c>
+      <c r="N343" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="344" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>607</v>
       </c>
@@ -19307,11 +20339,14 @@
       <c r="L344" t="s">
         <v>22</v>
       </c>
-      <c r="M344" t="s">
+      <c r="M344">
+        <v>0</v>
+      </c>
+      <c r="N344" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="345" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>277</v>
       </c>
@@ -19348,11 +20383,14 @@
       <c r="L345" t="s">
         <v>22</v>
       </c>
-      <c r="M345" t="s">
+      <c r="M345">
+        <v>0</v>
+      </c>
+      <c r="N345" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="346" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>116</v>
       </c>
@@ -19389,11 +20427,14 @@
       <c r="L346" t="s">
         <v>53</v>
       </c>
-      <c r="M346" t="s">
+      <c r="M346">
+        <v>0</v>
+      </c>
+      <c r="N346" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="347" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>277</v>
       </c>
@@ -19430,11 +20471,14 @@
       <c r="L347" t="s">
         <v>22</v>
       </c>
-      <c r="M347" t="s">
+      <c r="M347">
+        <v>0</v>
+      </c>
+      <c r="N347" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="348" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>33</v>
       </c>
@@ -19471,11 +20515,14 @@
       <c r="L348" t="s">
         <v>22</v>
       </c>
-      <c r="M348" t="s">
+      <c r="M348">
+        <v>0</v>
+      </c>
+      <c r="N348" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="349" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>1180</v>
       </c>
@@ -19512,11 +20559,14 @@
       <c r="L349" t="s">
         <v>22</v>
       </c>
-      <c r="M349" t="s">
+      <c r="M349">
+        <v>0</v>
+      </c>
+      <c r="N349" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="350" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>607</v>
       </c>
@@ -19553,11 +20603,14 @@
       <c r="L350" t="s">
         <v>22</v>
       </c>
-      <c r="M350" t="s">
+      <c r="M350">
+        <v>0</v>
+      </c>
+      <c r="N350" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="351" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>77</v>
       </c>
@@ -19594,11 +20647,14 @@
       <c r="L351" t="s">
         <v>53</v>
       </c>
-      <c r="M351" t="s">
+      <c r="M351">
+        <v>0</v>
+      </c>
+      <c r="N351" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="352" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>266</v>
       </c>
@@ -19635,11 +20691,14 @@
       <c r="L352" t="s">
         <v>22</v>
       </c>
-      <c r="M352" t="s">
+      <c r="M352">
+        <v>0</v>
+      </c>
+      <c r="N352" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="353" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>77</v>
       </c>
@@ -19676,11 +20735,14 @@
       <c r="L353" t="s">
         <v>53</v>
       </c>
-      <c r="M353" t="s">
+      <c r="M353">
+        <v>0</v>
+      </c>
+      <c r="N353" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="354" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>77</v>
       </c>
@@ -19717,11 +20779,14 @@
       <c r="L354" t="s">
         <v>53</v>
       </c>
-      <c r="M354" t="s">
+      <c r="M354">
+        <v>0</v>
+      </c>
+      <c r="N354" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="355" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>55</v>
       </c>
@@ -19758,11 +20823,14 @@
       <c r="L355" t="s">
         <v>53</v>
       </c>
-      <c r="M355" t="s">
+      <c r="M355">
+        <v>1</v>
+      </c>
+      <c r="N355" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="356" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>55</v>
       </c>
@@ -19799,11 +20867,14 @@
       <c r="L356" t="s">
         <v>53</v>
       </c>
-      <c r="M356" t="s">
+      <c r="M356">
+        <v>0</v>
+      </c>
+      <c r="N356" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="357" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>283</v>
       </c>
@@ -19840,11 +20911,14 @@
       <c r="L357" t="s">
         <v>22</v>
       </c>
-      <c r="M357" t="s">
+      <c r="M357">
+        <v>0</v>
+      </c>
+      <c r="N357" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="358" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>41</v>
       </c>
@@ -19881,11 +20955,14 @@
       <c r="L358" t="s">
         <v>22</v>
       </c>
-      <c r="M358" t="s">
+      <c r="M358">
+        <v>0</v>
+      </c>
+      <c r="N358" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="359" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>178</v>
       </c>
@@ -19922,11 +20999,14 @@
       <c r="L359" t="s">
         <v>22</v>
       </c>
-      <c r="M359" t="s">
+      <c r="M359">
+        <v>0</v>
+      </c>
+      <c r="N359" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="360" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>238</v>
       </c>
@@ -19963,11 +21043,14 @@
       <c r="L360" t="s">
         <v>22</v>
       </c>
-      <c r="M360" t="s">
+      <c r="M360">
+        <v>0</v>
+      </c>
+      <c r="N360" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="361" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>116</v>
       </c>
@@ -20004,11 +21087,14 @@
       <c r="L361" t="s">
         <v>53</v>
       </c>
-      <c r="M361" t="s">
+      <c r="M361">
+        <v>0</v>
+      </c>
+      <c r="N361" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="362" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>116</v>
       </c>
@@ -20045,11 +21131,14 @@
       <c r="L362" t="s">
         <v>53</v>
       </c>
-      <c r="M362" t="s">
+      <c r="M362">
+        <v>0</v>
+      </c>
+      <c r="N362" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="363" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>547</v>
       </c>
@@ -20086,11 +21175,14 @@
       <c r="L363" t="s">
         <v>22</v>
       </c>
-      <c r="M363" t="s">
+      <c r="M363">
+        <v>0</v>
+      </c>
+      <c r="N363" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="364" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>33</v>
       </c>
@@ -20127,11 +21219,14 @@
       <c r="L364" t="s">
         <v>22</v>
       </c>
-      <c r="M364" t="s">
+      <c r="M364">
+        <v>0</v>
+      </c>
+      <c r="N364" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="365" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>71</v>
       </c>
@@ -20168,11 +21263,14 @@
       <c r="L365" t="s">
         <v>53</v>
       </c>
-      <c r="M365" t="s">
+      <c r="M365">
+        <v>0</v>
+      </c>
+      <c r="N365" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="366" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>283</v>
       </c>
@@ -20209,11 +21307,14 @@
       <c r="L366" t="s">
         <v>22</v>
       </c>
-      <c r="M366" t="s">
+      <c r="M366">
+        <v>1</v>
+      </c>
+      <c r="N366" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="367" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>82</v>
       </c>
@@ -20250,11 +21351,14 @@
       <c r="L367" t="s">
         <v>22</v>
       </c>
-      <c r="M367" t="s">
+      <c r="M367">
+        <v>0</v>
+      </c>
+      <c r="N367" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="368" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>82</v>
       </c>
@@ -20291,11 +21395,14 @@
       <c r="L368" t="s">
         <v>22</v>
       </c>
-      <c r="M368" t="s">
+      <c r="M368">
+        <v>0</v>
+      </c>
+      <c r="N368" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="369" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>82</v>
       </c>
@@ -20332,11 +21439,14 @@
       <c r="L369" t="s">
         <v>22</v>
       </c>
-      <c r="M369" t="s">
+      <c r="M369">
+        <v>1</v>
+      </c>
+      <c r="N369" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="370" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>607</v>
       </c>
@@ -20373,11 +21483,14 @@
       <c r="L370" t="s">
         <v>22</v>
       </c>
-      <c r="M370" t="s">
+      <c r="M370">
+        <v>0</v>
+      </c>
+      <c r="N370" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="371" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>587</v>
       </c>
@@ -20414,11 +21527,14 @@
       <c r="L371" t="s">
         <v>22</v>
       </c>
-      <c r="M371" t="s">
+      <c r="M371">
+        <v>0</v>
+      </c>
+      <c r="N371" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="372" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>607</v>
       </c>
@@ -20455,11 +21571,14 @@
       <c r="L372" t="s">
         <v>22</v>
       </c>
-      <c r="M372" t="s">
+      <c r="M372">
+        <v>0</v>
+      </c>
+      <c r="N372" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="373" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>33</v>
       </c>
@@ -20496,11 +21615,14 @@
       <c r="L373" t="s">
         <v>22</v>
       </c>
-      <c r="M373" t="s">
+      <c r="M373">
+        <v>0</v>
+      </c>
+      <c r="N373" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="374" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>116</v>
       </c>
@@ -20537,11 +21659,14 @@
       <c r="L374" t="s">
         <v>53</v>
       </c>
-      <c r="M374" t="s">
+      <c r="M374">
+        <v>0</v>
+      </c>
+      <c r="N374" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="375" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>82</v>
       </c>
@@ -20578,11 +21703,14 @@
       <c r="L375" t="s">
         <v>22</v>
       </c>
-      <c r="M375" t="s">
+      <c r="M375">
+        <v>0</v>
+      </c>
+      <c r="N375" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="376" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>77</v>
       </c>
@@ -20619,11 +21747,14 @@
       <c r="L376" t="s">
         <v>53</v>
       </c>
-      <c r="M376" t="s">
+      <c r="M376">
+        <v>0</v>
+      </c>
+      <c r="N376" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="377" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>287</v>
       </c>
@@ -20660,11 +21791,14 @@
       <c r="L377" t="s">
         <v>22</v>
       </c>
-      <c r="M377" t="s">
+      <c r="M377">
+        <v>1</v>
+      </c>
+      <c r="N377" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="378" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>33</v>
       </c>
@@ -20701,11 +21835,14 @@
       <c r="L378" t="s">
         <v>22</v>
       </c>
-      <c r="M378" t="s">
+      <c r="M378">
+        <v>0</v>
+      </c>
+      <c r="N378" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="379" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>77</v>
       </c>
@@ -20742,11 +21879,14 @@
       <c r="L379" t="s">
         <v>53</v>
       </c>
-      <c r="M379" t="s">
+      <c r="M379">
+        <v>0</v>
+      </c>
+      <c r="N379" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="380" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>82</v>
       </c>
@@ -20783,11 +21923,14 @@
       <c r="L380" t="s">
         <v>22</v>
       </c>
-      <c r="M380" t="s">
+      <c r="M380">
+        <v>1</v>
+      </c>
+      <c r="N380" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="381" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>49</v>
       </c>
@@ -20824,11 +21967,14 @@
       <c r="L381" t="s">
         <v>53</v>
       </c>
-      <c r="M381" t="s">
+      <c r="M381">
+        <v>0</v>
+      </c>
+      <c r="N381" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="382" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>24</v>
       </c>
@@ -20865,11 +22011,14 @@
       <c r="L382" t="s">
         <v>22</v>
       </c>
-      <c r="M382" t="s">
+      <c r="M382">
+        <v>0</v>
+      </c>
+      <c r="N382" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="383" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>49</v>
       </c>
@@ -20906,11 +22055,14 @@
       <c r="L383" t="s">
         <v>53</v>
       </c>
-      <c r="M383" t="s">
+      <c r="M383">
+        <v>0</v>
+      </c>
+      <c r="N383" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="384" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>122</v>
       </c>
@@ -20947,11 +22099,14 @@
       <c r="L384" t="s">
         <v>22</v>
       </c>
-      <c r="M384" t="s">
+      <c r="M384">
+        <v>0</v>
+      </c>
+      <c r="N384" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="385" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>77</v>
       </c>
@@ -20988,11 +22143,14 @@
       <c r="L385" t="s">
         <v>53</v>
       </c>
-      <c r="M385" t="s">
+      <c r="M385">
+        <v>1</v>
+      </c>
+      <c r="N385" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="386" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>194</v>
       </c>
@@ -21029,11 +22187,14 @@
       <c r="L386" t="s">
         <v>22</v>
       </c>
-      <c r="M386" t="s">
+      <c r="M386">
+        <v>1</v>
+      </c>
+      <c r="N386" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="387" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>77</v>
       </c>
@@ -21070,11 +22231,14 @@
       <c r="L387" t="s">
         <v>53</v>
       </c>
-      <c r="M387" t="s">
+      <c r="M387">
+        <v>0</v>
+      </c>
+      <c r="N387" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="388" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>55</v>
       </c>
@@ -21111,11 +22275,14 @@
       <c r="L388" t="s">
         <v>53</v>
       </c>
-      <c r="M388" t="s">
+      <c r="M388">
+        <v>1</v>
+      </c>
+      <c r="N388" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="389" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>77</v>
       </c>
@@ -21152,11 +22319,14 @@
       <c r="L389" t="s">
         <v>53</v>
       </c>
-      <c r="M389" t="s">
+      <c r="M389">
+        <v>0</v>
+      </c>
+      <c r="N389" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="390" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>1297</v>
       </c>
@@ -21193,11 +22363,14 @@
       <c r="L390" t="s">
         <v>22</v>
       </c>
-      <c r="M390" t="s">
+      <c r="M390">
+        <v>0</v>
+      </c>
+      <c r="N390" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="391" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>194</v>
       </c>
@@ -21234,11 +22407,14 @@
       <c r="L391" t="s">
         <v>22</v>
       </c>
-      <c r="M391" t="s">
+      <c r="M391">
+        <v>1</v>
+      </c>
+      <c r="N391" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="392" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>127</v>
       </c>
@@ -21275,11 +22451,14 @@
       <c r="L392" t="s">
         <v>22</v>
       </c>
-      <c r="M392" t="s">
+      <c r="M392">
+        <v>0</v>
+      </c>
+      <c r="N392" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="393" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>127</v>
       </c>
@@ -21316,11 +22495,14 @@
       <c r="L393" t="s">
         <v>22</v>
       </c>
-      <c r="M393" t="s">
+      <c r="M393">
+        <v>0</v>
+      </c>
+      <c r="N393" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="394" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>547</v>
       </c>
@@ -21357,11 +22539,14 @@
       <c r="L394" t="s">
         <v>22</v>
       </c>
-      <c r="M394" t="s">
+      <c r="M394">
+        <v>0</v>
+      </c>
+      <c r="N394" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="395" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>283</v>
       </c>
@@ -21398,11 +22583,14 @@
       <c r="L395" t="s">
         <v>22</v>
       </c>
-      <c r="M395" t="s">
+      <c r="M395">
+        <v>1</v>
+      </c>
+      <c r="N395" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="396" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>194</v>
       </c>
@@ -21439,11 +22627,14 @@
       <c r="L396" t="s">
         <v>22</v>
       </c>
-      <c r="M396" t="s">
+      <c r="M396">
+        <v>0</v>
+      </c>
+      <c r="N396" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="397" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>116</v>
       </c>
@@ -21480,11 +22671,14 @@
       <c r="L397" t="s">
         <v>53</v>
       </c>
-      <c r="M397" t="s">
+      <c r="M397">
+        <v>0</v>
+      </c>
+      <c r="N397" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="398" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>283</v>
       </c>
@@ -21521,11 +22715,14 @@
       <c r="L398" t="s">
         <v>22</v>
       </c>
-      <c r="M398" t="s">
+      <c r="M398">
+        <v>0</v>
+      </c>
+      <c r="N398" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="399" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>71</v>
       </c>
@@ -21562,11 +22759,14 @@
       <c r="L399" t="s">
         <v>53</v>
       </c>
-      <c r="M399" t="s">
+      <c r="M399">
+        <v>0</v>
+      </c>
+      <c r="N399" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="400" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>71</v>
       </c>
@@ -21603,11 +22803,14 @@
       <c r="L400" t="s">
         <v>53</v>
       </c>
-      <c r="M400" t="s">
+      <c r="M400">
+        <v>0</v>
+      </c>
+      <c r="N400" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="401" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>71</v>
       </c>
@@ -21644,11 +22847,14 @@
       <c r="L401" t="s">
         <v>53</v>
       </c>
-      <c r="M401" t="s">
+      <c r="M401">
+        <v>0</v>
+      </c>
+      <c r="N401" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="402" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>82</v>
       </c>
@@ -21685,11 +22891,14 @@
       <c r="L402" t="s">
         <v>22</v>
       </c>
-      <c r="M402" t="s">
+      <c r="M402">
+        <v>0</v>
+      </c>
+      <c r="N402" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="403" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>33</v>
       </c>
@@ -21726,11 +22935,14 @@
       <c r="L403" t="s">
         <v>22</v>
       </c>
-      <c r="M403" t="s">
+      <c r="M403">
+        <v>0</v>
+      </c>
+      <c r="N403" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="404" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>178</v>
       </c>
@@ -21767,11 +22979,14 @@
       <c r="L404" t="s">
         <v>22</v>
       </c>
-      <c r="M404" t="s">
+      <c r="M404">
+        <v>0</v>
+      </c>
+      <c r="N404" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="405" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>527</v>
       </c>
@@ -21808,11 +23023,14 @@
       <c r="L405" t="s">
         <v>22</v>
       </c>
-      <c r="M405" t="s">
+      <c r="M405">
+        <v>1</v>
+      </c>
+      <c r="N405" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="406" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>127</v>
       </c>
@@ -21849,11 +23067,14 @@
       <c r="L406" t="s">
         <v>22</v>
       </c>
-      <c r="M406" t="s">
+      <c r="M406">
+        <v>0</v>
+      </c>
+      <c r="N406" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="407" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>127</v>
       </c>
@@ -21890,11 +23111,14 @@
       <c r="L407" t="s">
         <v>22</v>
       </c>
-      <c r="M407" t="s">
+      <c r="M407">
+        <v>0</v>
+      </c>
+      <c r="N407" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="408" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>77</v>
       </c>
@@ -21931,11 +23155,14 @@
       <c r="L408" t="s">
         <v>53</v>
       </c>
-      <c r="M408" t="s">
+      <c r="M408">
+        <v>0</v>
+      </c>
+      <c r="N408" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="409" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>116</v>
       </c>
@@ -21972,11 +23199,14 @@
       <c r="L409" t="s">
         <v>53</v>
       </c>
-      <c r="M409" t="s">
+      <c r="M409">
+        <v>0</v>
+      </c>
+      <c r="N409" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row r="410" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>33</v>
       </c>
@@ -22013,11 +23243,14 @@
       <c r="L410" t="s">
         <v>22</v>
       </c>
-      <c r="M410" t="s">
+      <c r="M410">
+        <v>0</v>
+      </c>
+      <c r="N410" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="411" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>127</v>
       </c>
@@ -22054,11 +23287,14 @@
       <c r="L411" t="s">
         <v>22</v>
       </c>
-      <c r="M411" t="s">
+      <c r="M411">
+        <v>0</v>
+      </c>
+      <c r="N411" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="412" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>963</v>
       </c>
@@ -22095,11 +23331,14 @@
       <c r="L412" t="s">
         <v>22</v>
       </c>
-      <c r="M412" t="s">
+      <c r="M412">
+        <v>0</v>
+      </c>
+      <c r="N412" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="413" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>116</v>
       </c>
@@ -22136,11 +23375,14 @@
       <c r="L413" t="s">
         <v>53</v>
       </c>
-      <c r="M413" t="s">
+      <c r="M413">
+        <v>0</v>
+      </c>
+      <c r="N413" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="414" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>283</v>
       </c>
@@ -22177,11 +23419,14 @@
       <c r="L414" t="s">
         <v>22</v>
       </c>
-      <c r="M414" t="s">
+      <c r="M414">
+        <v>0</v>
+      </c>
+      <c r="N414" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="415" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>287</v>
       </c>
@@ -22218,11 +23463,14 @@
       <c r="L415" t="s">
         <v>22</v>
       </c>
-      <c r="M415" t="s">
+      <c r="M415">
+        <v>1</v>
+      </c>
+      <c r="N415" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="416" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>60</v>
       </c>
@@ -22259,11 +23507,14 @@
       <c r="L416" t="s">
         <v>22</v>
       </c>
-      <c r="M416" t="s">
+      <c r="M416">
+        <v>1</v>
+      </c>
+      <c r="N416" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="417" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>41</v>
       </c>
@@ -22300,11 +23551,14 @@
       <c r="L417" t="s">
         <v>22</v>
       </c>
-      <c r="M417" t="s">
+      <c r="M417">
+        <v>1</v>
+      </c>
+      <c r="N417" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="418" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>24</v>
       </c>
@@ -22341,11 +23595,14 @@
       <c r="L418" t="s">
         <v>1375</v>
       </c>
-      <c r="M418" t="s">
+      <c r="M418">
+        <v>0</v>
+      </c>
+      <c r="N418" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="419" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>82</v>
       </c>
@@ -22382,11 +23639,14 @@
       <c r="L419" t="s">
         <v>22</v>
       </c>
-      <c r="M419" t="s">
+      <c r="M419">
+        <v>1</v>
+      </c>
+      <c r="N419" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="420" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>82</v>
       </c>
@@ -22423,11 +23683,14 @@
       <c r="L420" t="s">
         <v>22</v>
       </c>
-      <c r="M420" t="s">
+      <c r="M420">
+        <v>0</v>
+      </c>
+      <c r="N420" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="421" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>49</v>
       </c>
@@ -22464,11 +23727,14 @@
       <c r="L421" t="s">
         <v>53</v>
       </c>
-      <c r="M421" t="s">
+      <c r="M421">
+        <v>0</v>
+      </c>
+      <c r="N421" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="422" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>194</v>
       </c>
@@ -22505,11 +23771,14 @@
       <c r="L422" t="s">
         <v>22</v>
       </c>
-      <c r="M422" t="s">
+      <c r="M422">
+        <v>1</v>
+      </c>
+      <c r="N422" t="s">
         <v>1387</v>
       </c>
     </row>
-    <row r="423" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>55</v>
       </c>
@@ -22546,11 +23815,14 @@
       <c r="L423" t="s">
         <v>53</v>
       </c>
-      <c r="M423" t="s">
+      <c r="M423">
+        <v>1</v>
+      </c>
+      <c r="N423" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="424" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>283</v>
       </c>
@@ -22587,11 +23859,14 @@
       <c r="L424" t="s">
         <v>22</v>
       </c>
-      <c r="M424" t="s">
+      <c r="M424">
+        <v>0</v>
+      </c>
+      <c r="N424" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="425" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>343</v>
       </c>
@@ -22628,11 +23903,14 @@
       <c r="L425" t="s">
         <v>22</v>
       </c>
-      <c r="M425" t="s">
+      <c r="M425">
+        <v>1</v>
+      </c>
+      <c r="N425" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="426" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>49</v>
       </c>
@@ -22669,11 +23947,14 @@
       <c r="L426" t="s">
         <v>53</v>
       </c>
-      <c r="M426" t="s">
+      <c r="M426">
+        <v>0</v>
+      </c>
+      <c r="N426" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="427" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>287</v>
       </c>
@@ -22710,11 +23991,14 @@
       <c r="L427" t="s">
         <v>22</v>
       </c>
-      <c r="M427" t="s">
+      <c r="M427">
+        <v>1</v>
+      </c>
+      <c r="N427" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="428" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>194</v>
       </c>
@@ -22751,11 +24035,14 @@
       <c r="L428" t="s">
         <v>22</v>
       </c>
-      <c r="M428" t="s">
+      <c r="M428">
+        <v>0</v>
+      </c>
+      <c r="N428" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="429" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>55</v>
       </c>
@@ -22792,11 +24079,14 @@
       <c r="L429" t="s">
         <v>53</v>
       </c>
-      <c r="M429" t="s">
+      <c r="M429">
+        <v>0</v>
+      </c>
+      <c r="N429" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="430" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>287</v>
       </c>
@@ -22833,11 +24123,14 @@
       <c r="L430" t="s">
         <v>22</v>
       </c>
-      <c r="M430" t="s">
+      <c r="M430">
+        <v>0</v>
+      </c>
+      <c r="N430" t="s">
         <v>1409</v>
       </c>
     </row>
-    <row r="431" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>527</v>
       </c>
@@ -22874,11 +24167,14 @@
       <c r="L431" t="s">
         <v>22</v>
       </c>
-      <c r="M431" t="s">
+      <c r="M431">
+        <v>1</v>
+      </c>
+      <c r="N431" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="432" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>266</v>
       </c>
@@ -22915,11 +24211,14 @@
       <c r="L432" t="s">
         <v>22</v>
       </c>
-      <c r="M432" t="s">
+      <c r="M432">
+        <v>0</v>
+      </c>
+      <c r="N432" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="433" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>116</v>
       </c>
@@ -22956,11 +24255,14 @@
       <c r="L433" t="s">
         <v>53</v>
       </c>
-      <c r="M433" t="s">
+      <c r="M433">
+        <v>0</v>
+      </c>
+      <c r="N433" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="434" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>283</v>
       </c>
@@ -22997,11 +24299,14 @@
       <c r="L434" t="s">
         <v>22</v>
       </c>
-      <c r="M434" t="s">
+      <c r="M434">
+        <v>0</v>
+      </c>
+      <c r="N434" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="435" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>178</v>
       </c>
@@ -23038,11 +24343,14 @@
       <c r="L435" t="s">
         <v>22</v>
       </c>
-      <c r="M435" t="s">
+      <c r="M435">
+        <v>0</v>
+      </c>
+      <c r="N435" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="436" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>116</v>
       </c>
@@ -23079,11 +24387,14 @@
       <c r="L436" t="s">
         <v>53</v>
       </c>
-      <c r="M436" t="s">
+      <c r="M436">
+        <v>0</v>
+      </c>
+      <c r="N436" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="437" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>116</v>
       </c>
@@ -23120,11 +24431,14 @@
       <c r="L437" t="s">
         <v>53</v>
       </c>
-      <c r="M437" t="s">
+      <c r="M437">
+        <v>0</v>
+      </c>
+      <c r="N437" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="438" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>33</v>
       </c>
@@ -23161,11 +24475,14 @@
       <c r="L438" t="s">
         <v>22</v>
       </c>
-      <c r="M438" t="s">
+      <c r="M438">
+        <v>0</v>
+      </c>
+      <c r="N438" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="439" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>77</v>
       </c>
@@ -23202,11 +24519,14 @@
       <c r="L439" t="s">
         <v>53</v>
       </c>
-      <c r="M439" t="s">
+      <c r="M439">
+        <v>0</v>
+      </c>
+      <c r="N439" t="s">
         <v>1435</v>
       </c>
     </row>
-    <row r="440" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>116</v>
       </c>
@@ -23243,11 +24563,14 @@
       <c r="L440" t="s">
         <v>53</v>
       </c>
-      <c r="M440" t="s">
+      <c r="M440">
+        <v>0</v>
+      </c>
+      <c r="N440" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="441" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>1439</v>
       </c>
@@ -23284,11 +24607,14 @@
       <c r="L441" t="s">
         <v>22</v>
       </c>
-      <c r="M441" t="s">
+      <c r="M441">
+        <v>0</v>
+      </c>
+      <c r="N441" t="s">
         <v>1442</v>
       </c>
     </row>
-    <row r="442" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>266</v>
       </c>
@@ -23325,11 +24651,14 @@
       <c r="L442" t="s">
         <v>22</v>
       </c>
-      <c r="M442" t="s">
+      <c r="M442">
+        <v>1</v>
+      </c>
+      <c r="N442" t="s">
         <v>1444</v>
       </c>
     </row>
-    <row r="443" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>266</v>
       </c>
@@ -23366,11 +24695,14 @@
       <c r="L443" t="s">
         <v>53</v>
       </c>
-      <c r="M443" t="s">
+      <c r="M443">
+        <v>1</v>
+      </c>
+      <c r="N443" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="444" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>527</v>
       </c>
@@ -23407,11 +24739,14 @@
       <c r="L444" t="s">
         <v>22</v>
       </c>
-      <c r="M444" t="s">
+      <c r="M444">
+        <v>1</v>
+      </c>
+      <c r="N444" t="s">
         <v>1449</v>
       </c>
     </row>
-    <row r="445" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>194</v>
       </c>
@@ -23448,11 +24783,14 @@
       <c r="L445" t="s">
         <v>22</v>
       </c>
-      <c r="M445" t="s">
+      <c r="M445">
+        <v>0</v>
+      </c>
+      <c r="N445" t="s">
         <v>1452</v>
       </c>
     </row>
-    <row r="446" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>266</v>
       </c>
@@ -23489,11 +24827,14 @@
       <c r="L446" t="s">
         <v>53</v>
       </c>
-      <c r="M446" t="s">
+      <c r="M446">
+        <v>1</v>
+      </c>
+      <c r="N446" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="447" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>82</v>
       </c>
@@ -23530,11 +24871,14 @@
       <c r="L447" t="s">
         <v>22</v>
       </c>
-      <c r="M447" t="s">
+      <c r="M447">
+        <v>0</v>
+      </c>
+      <c r="N447" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="448" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>116</v>
       </c>
@@ -23571,11 +24915,14 @@
       <c r="L448" t="s">
         <v>53</v>
       </c>
-      <c r="M448" t="s">
+      <c r="M448">
+        <v>0</v>
+      </c>
+      <c r="N448" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="449" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>122</v>
       </c>
@@ -23612,11 +24959,14 @@
       <c r="L449" t="s">
         <v>22</v>
       </c>
-      <c r="M449" t="s">
+      <c r="M449">
+        <v>0</v>
+      </c>
+      <c r="N449" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="450" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>194</v>
       </c>
@@ -23653,11 +25003,14 @@
       <c r="L450" t="s">
         <v>22</v>
       </c>
-      <c r="M450" t="s">
+      <c r="M450">
+        <v>0</v>
+      </c>
+      <c r="N450" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="451" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>287</v>
       </c>
@@ -23694,11 +25047,14 @@
       <c r="L451" t="s">
         <v>22</v>
       </c>
-      <c r="M451" t="s">
+      <c r="M451">
+        <v>0</v>
+      </c>
+      <c r="N451" t="s">
         <v>1469</v>
       </c>
     </row>
-    <row r="452" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>71</v>
       </c>
@@ -23735,11 +25091,14 @@
       <c r="L452" t="s">
         <v>53</v>
       </c>
-      <c r="M452" t="s">
+      <c r="M452">
+        <v>1</v>
+      </c>
+      <c r="N452" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="453" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>547</v>
       </c>
@@ -23776,11 +25135,14 @@
       <c r="L453" t="s">
         <v>22</v>
       </c>
-      <c r="M453" t="s">
+      <c r="M453">
+        <v>0</v>
+      </c>
+      <c r="N453" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="454" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>122</v>
       </c>
@@ -23817,11 +25179,14 @@
       <c r="L454" t="s">
         <v>22</v>
       </c>
-      <c r="M454" t="s">
+      <c r="M454">
+        <v>1</v>
+      </c>
+      <c r="N454" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="455" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>663</v>
       </c>
@@ -23858,11 +25223,14 @@
       <c r="L455" t="s">
         <v>53</v>
       </c>
-      <c r="M455" t="s">
+      <c r="M455">
+        <v>0</v>
+      </c>
+      <c r="N455" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="456" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>49</v>
       </c>
@@ -23899,11 +25267,14 @@
       <c r="L456" t="s">
         <v>53</v>
       </c>
-      <c r="M456" t="s">
+      <c r="M456">
+        <v>0</v>
+      </c>
+      <c r="N456" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="457" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>71</v>
       </c>
@@ -23940,11 +25311,14 @@
       <c r="L457" t="s">
         <v>53</v>
       </c>
-      <c r="M457" t="s">
+      <c r="M457">
+        <v>0</v>
+      </c>
+      <c r="N457" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="458" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>659</v>
       </c>
@@ -23981,11 +25355,14 @@
       <c r="L458" t="s">
         <v>22</v>
       </c>
-      <c r="M458" t="s">
+      <c r="M458">
+        <v>0</v>
+      </c>
+      <c r="N458" t="s">
         <v>1491</v>
       </c>
     </row>
-    <row r="459" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>194</v>
       </c>
@@ -24022,11 +25399,14 @@
       <c r="L459" t="s">
         <v>22</v>
       </c>
-      <c r="M459" t="s">
+      <c r="M459">
+        <v>0</v>
+      </c>
+      <c r="N459" t="s">
         <v>1494</v>
       </c>
     </row>
-    <row r="460" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>49</v>
       </c>
@@ -24063,11 +25443,14 @@
       <c r="L460" t="s">
         <v>53</v>
       </c>
-      <c r="M460" t="s">
+      <c r="M460">
+        <v>0</v>
+      </c>
+      <c r="N460" t="s">
         <v>1497</v>
       </c>
     </row>
-    <row r="461" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>82</v>
       </c>
@@ -24104,11 +25487,14 @@
       <c r="L461" t="s">
         <v>22</v>
       </c>
-      <c r="M461" t="s">
+      <c r="M461">
+        <v>0</v>
+      </c>
+      <c r="N461" t="s">
         <v>1500</v>
       </c>
     </row>
-    <row r="462" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>71</v>
       </c>
@@ -24145,11 +25531,14 @@
       <c r="L462" t="s">
         <v>53</v>
       </c>
-      <c r="M462" t="s">
+      <c r="M462">
+        <v>0</v>
+      </c>
+      <c r="N462" t="s">
         <v>1502</v>
       </c>
     </row>
-    <row r="463" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>194</v>
       </c>
@@ -24186,11 +25575,14 @@
       <c r="L463" t="s">
         <v>22</v>
       </c>
-      <c r="M463" t="s">
+      <c r="M463">
+        <v>0</v>
+      </c>
+      <c r="N463" t="s">
         <v>1505</v>
       </c>
     </row>
-    <row r="464" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>71</v>
       </c>
@@ -24227,11 +25619,14 @@
       <c r="L464" t="s">
         <v>53</v>
       </c>
-      <c r="M464" t="s">
+      <c r="M464">
+        <v>0</v>
+      </c>
+      <c r="N464" t="s">
         <v>1510</v>
       </c>
     </row>
-    <row r="465" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>71</v>
       </c>
@@ -24268,11 +25663,14 @@
       <c r="L465" t="s">
         <v>53</v>
       </c>
-      <c r="M465" t="s">
+      <c r="M465">
+        <v>0</v>
+      </c>
+      <c r="N465" t="s">
         <v>1512</v>
       </c>
     </row>
-    <row r="466" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>71</v>
       </c>
@@ -24309,11 +25707,14 @@
       <c r="L466" t="s">
         <v>53</v>
       </c>
-      <c r="M466" t="s">
+      <c r="M466">
+        <v>0</v>
+      </c>
+      <c r="N466" t="s">
         <v>1515</v>
       </c>
     </row>
-    <row r="467" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>266</v>
       </c>
@@ -24350,11 +25751,14 @@
       <c r="L467" t="s">
         <v>53</v>
       </c>
-      <c r="M467" t="s">
+      <c r="M467">
+        <v>1</v>
+      </c>
+      <c r="N467" t="s">
         <v>1518</v>
       </c>
     </row>
-    <row r="468" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>194</v>
       </c>
@@ -24391,11 +25795,14 @@
       <c r="L468" t="s">
         <v>22</v>
       </c>
-      <c r="M468" t="s">
+      <c r="M468">
+        <v>0</v>
+      </c>
+      <c r="N468" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="469" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>110</v>
       </c>
@@ -24432,11 +25839,14 @@
       <c r="L469" t="s">
         <v>53</v>
       </c>
-      <c r="M469" t="s">
+      <c r="M469">
+        <v>0</v>
+      </c>
+      <c r="N469" t="s">
         <v>1523</v>
       </c>
     </row>
-    <row r="470" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>77</v>
       </c>
@@ -24473,11 +25883,14 @@
       <c r="L470" t="s">
         <v>53</v>
       </c>
-      <c r="M470" t="s">
+      <c r="M470">
+        <v>0</v>
+      </c>
+      <c r="N470" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="471" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>127</v>
       </c>
@@ -24514,11 +25927,14 @@
       <c r="L471" t="s">
         <v>22</v>
       </c>
-      <c r="M471" t="s">
+      <c r="M471">
+        <v>0</v>
+      </c>
+      <c r="N471" t="s">
         <v>1528</v>
       </c>
     </row>
-    <row r="472" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>178</v>
       </c>
@@ -24555,11 +25971,14 @@
       <c r="L472" t="s">
         <v>22</v>
       </c>
-      <c r="M472" t="s">
+      <c r="M472">
+        <v>0</v>
+      </c>
+      <c r="N472" t="s">
         <v>1531</v>
       </c>
     </row>
-    <row r="473" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>55</v>
       </c>
@@ -24596,11 +26015,14 @@
       <c r="L473" t="s">
         <v>53</v>
       </c>
-      <c r="M473" t="s">
+      <c r="M473">
+        <v>1</v>
+      </c>
+      <c r="N473" t="s">
         <v>1534</v>
       </c>
     </row>
-    <row r="474" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>60</v>
       </c>
@@ -24637,11 +26059,14 @@
       <c r="L474" t="s">
         <v>22</v>
       </c>
-      <c r="M474" t="s">
+      <c r="M474">
+        <v>0</v>
+      </c>
+      <c r="N474" t="s">
         <v>1537</v>
       </c>
     </row>
-    <row r="475" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>116</v>
       </c>
@@ -24678,11 +26103,14 @@
       <c r="L475" t="s">
         <v>53</v>
       </c>
-      <c r="M475" t="s">
+      <c r="M475">
+        <v>0</v>
+      </c>
+      <c r="N475" t="s">
         <v>1540</v>
       </c>
     </row>
-    <row r="476" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>116</v>
       </c>
@@ -24719,11 +26147,14 @@
       <c r="L476" t="s">
         <v>53</v>
       </c>
-      <c r="M476" t="s">
+      <c r="M476">
+        <v>0</v>
+      </c>
+      <c r="N476" t="s">
         <v>1543</v>
       </c>
     </row>
-    <row r="477" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>283</v>
       </c>
@@ -24760,11 +26191,14 @@
       <c r="L477" t="s">
         <v>22</v>
       </c>
-      <c r="M477" t="s">
+      <c r="M477">
+        <v>1</v>
+      </c>
+      <c r="N477" t="s">
         <v>1546</v>
       </c>
     </row>
-    <row r="478" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>142</v>
       </c>
@@ -24801,11 +26235,14 @@
       <c r="L478" t="s">
         <v>22</v>
       </c>
-      <c r="M478" t="s">
+      <c r="M478">
+        <v>0</v>
+      </c>
+      <c r="N478" t="s">
         <v>1549</v>
       </c>
     </row>
-    <row r="479" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>60</v>
       </c>
@@ -24842,11 +26279,14 @@
       <c r="L479" t="s">
         <v>22</v>
       </c>
-      <c r="M479" t="s">
+      <c r="M479">
+        <v>0</v>
+      </c>
+      <c r="N479" t="s">
         <v>1552</v>
       </c>
     </row>
-    <row r="480" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>60</v>
       </c>
@@ -24883,11 +26323,14 @@
       <c r="L480" t="s">
         <v>22</v>
       </c>
-      <c r="M480" t="s">
+      <c r="M480">
+        <v>0</v>
+      </c>
+      <c r="N480" t="s">
         <v>1555</v>
       </c>
     </row>
-    <row r="481" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>547</v>
       </c>
@@ -24924,11 +26367,14 @@
       <c r="L481" t="s">
         <v>22</v>
       </c>
-      <c r="M481" t="s">
+      <c r="M481">
+        <v>0</v>
+      </c>
+      <c r="N481" t="s">
         <v>1558</v>
       </c>
     </row>
-    <row r="482" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>1559</v>
       </c>
@@ -24965,11 +26411,14 @@
       <c r="L482" t="s">
         <v>22</v>
       </c>
-      <c r="M482" t="s">
+      <c r="M482">
+        <v>0</v>
+      </c>
+      <c r="N482" t="s">
         <v>1563</v>
       </c>
     </row>
-    <row r="483" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>238</v>
       </c>
@@ -25006,11 +26455,14 @@
       <c r="L483" t="s">
         <v>22</v>
       </c>
-      <c r="M483" t="s">
+      <c r="M483">
+        <v>0</v>
+      </c>
+      <c r="N483" t="s">
         <v>1566</v>
       </c>
     </row>
-    <row r="484" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>24</v>
       </c>
@@ -25047,11 +26499,14 @@
       <c r="L484" t="s">
         <v>22</v>
       </c>
-      <c r="M484" t="s">
+      <c r="M484">
+        <v>0</v>
+      </c>
+      <c r="N484" t="s">
         <v>1568</v>
       </c>
     </row>
-    <row r="485" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>283</v>
       </c>
@@ -25088,11 +26543,14 @@
       <c r="L485" t="s">
         <v>22</v>
       </c>
-      <c r="M485" t="s">
+      <c r="M485">
+        <v>0</v>
+      </c>
+      <c r="N485" t="s">
         <v>1571</v>
       </c>
     </row>
-    <row r="486" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>1559</v>
       </c>
@@ -25129,11 +26587,14 @@
       <c r="L486" t="s">
         <v>22</v>
       </c>
-      <c r="M486" t="s">
+      <c r="M486">
+        <v>0</v>
+      </c>
+      <c r="N486" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="487" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>33</v>
       </c>
@@ -25170,11 +26631,14 @@
       <c r="L487" t="s">
         <v>22</v>
       </c>
-      <c r="M487" t="s">
+      <c r="M487">
+        <v>0</v>
+      </c>
+      <c r="N487" t="s">
         <v>1577</v>
       </c>
     </row>
-    <row r="488" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>266</v>
       </c>
@@ -25211,11 +26675,14 @@
       <c r="L488" t="s">
         <v>53</v>
       </c>
-      <c r="M488" t="s">
+      <c r="M488">
+        <v>0</v>
+      </c>
+      <c r="N488" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="489" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>24</v>
       </c>
@@ -25252,11 +26719,14 @@
       <c r="L489" t="s">
         <v>53</v>
       </c>
-      <c r="M489" t="s">
+      <c r="M489">
+        <v>0</v>
+      </c>
+      <c r="N489" t="s">
         <v>1581</v>
       </c>
     </row>
-    <row r="490" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>93</v>
       </c>
@@ -25293,11 +26763,14 @@
       <c r="L490" t="s">
         <v>53</v>
       </c>
-      <c r="M490" t="s">
+      <c r="M490">
+        <v>0</v>
+      </c>
+      <c r="N490" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="491" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>287</v>
       </c>
@@ -25334,11 +26807,14 @@
       <c r="L491" t="s">
         <v>22</v>
       </c>
-      <c r="M491" t="s">
+      <c r="M491">
+        <v>1</v>
+      </c>
+      <c r="N491" t="s">
         <v>1588</v>
       </c>
     </row>
-    <row r="492" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>1589</v>
       </c>
@@ -25375,11 +26851,14 @@
       <c r="L492" t="s">
         <v>22</v>
       </c>
-      <c r="M492" t="s">
+      <c r="M492">
+        <v>0</v>
+      </c>
+      <c r="N492" t="s">
         <v>1593</v>
       </c>
     </row>
-    <row r="493" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>266</v>
       </c>
@@ -25416,11 +26895,14 @@
       <c r="L493" t="s">
         <v>53</v>
       </c>
-      <c r="M493" t="s">
+      <c r="M493">
+        <v>1</v>
+      </c>
+      <c r="N493" t="s">
         <v>1596</v>
       </c>
     </row>
-    <row r="494" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>307</v>
       </c>
@@ -25457,14 +26939,17 @@
       <c r="L494" t="s">
         <v>22</v>
       </c>
-      <c r="M494" t="s">
+      <c r="M494">
+        <v>0</v>
+      </c>
+      <c r="N494" t="s">
         <v>1599</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:M42 A44:M494 A43:C43 H43 M43" numberStoredAsText="1"/>
+    <ignoredError sqref="A43:C43 H43 N1:N494 A44:L494 A1:L42" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>